--- a/RulesetSrc/T24SFam/To-Docu/T24R Tables.xlsx
+++ b/RulesetSrc/T24SFam/To-Docu/T24R Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CBECC-Res\SVNv2\trunk\RulesetSrc\T24SFam\To-Docu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74F8466-F189-4769-9FEF-D3C09917A9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A858A4A4-E290-4E38-9A62-75B4AB6D902B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23563" yWindow="720" windowWidth="14563" windowHeight="13654" tabRatio="750" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7665" yWindow="135" windowWidth="20370" windowHeight="16890" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T24RClimateZoneDesignDay" sheetId="9" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7244" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7840" uniqueCount="1158">
   <si>
     <t>;</t>
   </si>
@@ -3550,6 +3550,65 @@
   </si>
   <si>
     <t>BLUE-CANYON</t>
+  </si>
+  <si>
+    <t>08/26/24 - SAC - added copies of 2025 records for 2028-SSP2 &amp; 2028-SSP3 testing</t>
+  </si>
+  <si>
+    <t>10/25/24 - SAC - added copies of 2025 records for 2028-SSP3-NPW &amp; 2028-SSP3-PW testing</t>
+  </si>
+  <si>
+    <t>based on 2025 CEC weather files - testing of 2028-SSP2 files</t>
+  </si>
+  <si>
+    <t>based on 2025 CEC weather files - testing of 2028-SSP3 files</t>
+  </si>
+  <si>
+    <t>based on 2025 CEC weather files - testing of 2028-SSP3-NPW (non-population-weighted) files</t>
+  </si>
+  <si>
+    <t>based on 2025 CEC weather files - testing of 2028-SSP3-PW (population-weighted) files</t>
+  </si>
+  <si>
+    <t>based on 2025 CEC weather files (w/ 'Historic' 2028 LSCs)</t>
+  </si>
+  <si>
+    <t>06/08/25 - SAC - added groups of rows for new 2028 testing options (2530: Historic 2028 LSCs, 2025 Weather -&amp;- 2840: Future 2028 LSCs/Weather)</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">based on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2028-SSP3-PW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (population-weighted) weather files</t>
+    </r>
+  </si>
+  <si>
+    <t>06/09/25 - SAC - updated CD1 &amp; HD1 data for new 2028 (SSP3-PW) weather data</t>
   </si>
 </sst>
 </file>
@@ -5028,10 +5087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5070,7 +5129,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>772</v>
+        <v>1157</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -5186,51 +5245,50 @@
       <c r="A17" t="s">
         <v>0</v>
       </c>
+      <c r="E17" t="s">
+        <v>772</v>
+      </c>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
+      <c r="E18" t="s">
+        <v>1146</v>
+      </c>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
       <c r="E19" t="s">
-        <v>646</v>
-      </c>
+        <v>1147</v>
+      </c>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
       <c r="E20" t="s">
-        <v>32</v>
-      </c>
+        <v>1153</v>
+      </c>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -5240,10 +5298,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>200</v>
-      </c>
-      <c r="K23" t="s">
-        <v>35</v>
+        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -5254,408 +5309,296 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>201</v>
-      </c>
-      <c r="K24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="1">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>202</v>
-      </c>
-      <c r="K25" t="s">
-        <v>34</v>
-      </c>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="1">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>203</v>
-      </c>
-      <c r="K26" t="s">
-        <v>34</v>
-      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
       <c r="E28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="15" t="s">
-        <v>45</v>
+        <v>201</v>
+      </c>
+      <c r="K28" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="E29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K29" s="1"/>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>202</v>
+      </c>
+      <c r="K29" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="E30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K30" s="1"/>
+      <c r="D30" s="1">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>203</v>
+      </c>
+      <c r="K30" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="3" t="s">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="E33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="E34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F35" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H35" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J31" s="168"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="27" t="s">
+      <c r="J35" s="168"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="27" t="s">
         <v>545</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C33" s="4" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C37" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="D33" s="167" t="s">
+      <c r="D37" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E37" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F37" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G37" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="H37" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" t="s">
+      <c r="I37" s="1"/>
+      <c r="J37" t="s">
         <v>776</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K37" t="s">
         <v>777</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L37" t="s">
         <v>778</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M37" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C34" s="156">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="154">
         <v>2520</v>
       </c>
-      <c r="D34" s="156">
-        <v>1</v>
-      </c>
-      <c r="E34" s="199">
+      <c r="D38" s="156">
+        <v>1</v>
+      </c>
+      <c r="E38" s="199">
         <v>33.6</v>
       </c>
-      <c r="F34" s="129" t="s">
+      <c r="F38" s="129" t="s">
         <v>780</v>
       </c>
-      <c r="G34" s="83" t="str">
-        <f>" " &amp; J34 &amp; " " &amp; K34</f>
+      <c r="G38" s="83" t="str">
+        <f>" " &amp; J38 &amp; " " &amp; K38</f>
         <v xml:space="preserve"> Sep 25</v>
       </c>
-      <c r="H34" s="156" t="str">
-        <f>" " &amp; L34 &amp; " " &amp; M34</f>
+      <c r="H38" s="156" t="str">
+        <f>" " &amp; L38 &amp; " " &amp; M38</f>
         <v xml:space="preserve"> Jan 09</v>
       </c>
-      <c r="I34" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="J34" s="146" t="s">
+      <c r="I38" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="146" t="s">
         <v>781</v>
       </c>
-      <c r="K34" s="195" t="s">
+      <c r="K38" s="195" t="s">
         <v>782</v>
       </c>
-      <c r="L34" s="146" t="s">
+      <c r="L38" s="146" t="s">
         <v>783</v>
       </c>
-      <c r="M34" s="195" t="s">
+      <c r="M38" s="195" t="s">
         <v>615</v>
       </c>
-      <c r="N34" s="146" t="s">
+      <c r="N38" s="146" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C35" s="1">
-        <f>C34</f>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <f>C38</f>
         <v>2520</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D39" s="1">
         <v>2</v>
       </c>
-      <c r="E35" s="200">
+      <c r="E39" s="200">
         <v>31.5</v>
       </c>
-      <c r="F35" s="61" t="s">
+      <c r="F39" s="61" t="s">
         <v>785</v>
       </c>
-      <c r="G35" s="16" t="str">
-        <f t="shared" ref="G35:G49" si="0">" " &amp; J35 &amp; " " &amp; K35</f>
+      <c r="G39" s="16" t="str">
+        <f t="shared" ref="G39:G53" si="0">" " &amp; J39 &amp; " " &amp; K39</f>
         <v xml:space="preserve"> Oct 02</v>
       </c>
-      <c r="H35" s="1" t="str">
-        <f t="shared" ref="H35:H49" si="1">" " &amp; L35 &amp; " " &amp; M35</f>
+      <c r="H39" s="1" t="str">
+        <f t="shared" ref="H39:H53" si="1">" " &amp; L39 &amp; " " &amp; M39</f>
         <v xml:space="preserve"> Jan 10</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="I39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
         <v>786</v>
       </c>
-      <c r="K35" s="196" t="s">
+      <c r="K39" s="196" t="s">
         <v>608</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L39" t="s">
         <v>783</v>
       </c>
-      <c r="M35" s="196" t="s">
+      <c r="M39" s="196" t="s">
         <v>616</v>
       </c>
-      <c r="N35" s="197" t="s">
+      <c r="N39" s="197" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C36" s="1">
-        <f t="shared" ref="C36:C49" si="2">C35</f>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <f t="shared" ref="C40:C53" si="2">C39</f>
         <v>2520</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D40" s="1">
         <v>3</v>
       </c>
-      <c r="E36" s="200">
+      <c r="E40" s="200">
         <v>39.200000000000003</v>
       </c>
-      <c r="F36" s="61" t="s">
+      <c r="F40" s="61" t="s">
         <v>788</v>
-      </c>
-      <c r="G36" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> Sep 26</v>
-      </c>
-      <c r="H36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Nov 27</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J36" s="198" t="s">
-        <v>781</v>
-      </c>
-      <c r="K36" s="196" t="s">
-        <v>789</v>
-      </c>
-      <c r="L36" t="s">
-        <v>790</v>
-      </c>
-      <c r="M36" s="196" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C37" s="1">
-        <f t="shared" si="2"/>
-        <v>2520</v>
-      </c>
-      <c r="D37" s="1">
-        <v>4</v>
-      </c>
-      <c r="E37" s="200">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="F37" s="61" t="s">
-        <v>667</v>
-      </c>
-      <c r="G37" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> Jun 27</v>
-      </c>
-      <c r="H37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Dec 02</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J37" s="198" t="s">
-        <v>792</v>
-      </c>
-      <c r="K37" s="196" t="s">
-        <v>791</v>
-      </c>
-      <c r="L37" t="s">
-        <v>793</v>
-      </c>
-      <c r="M37" s="196" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C38" s="1">
-        <f t="shared" si="2"/>
-        <v>2520</v>
-      </c>
-      <c r="D38" s="1">
-        <v>5</v>
-      </c>
-      <c r="E38" s="200">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="F38" s="61" t="s">
-        <v>653</v>
-      </c>
-      <c r="G38" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> Sep 26</v>
-      </c>
-      <c r="H38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Dec 01</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>781</v>
-      </c>
-      <c r="K38" s="196" t="s">
-        <v>789</v>
-      </c>
-      <c r="L38" t="s">
-        <v>793</v>
-      </c>
-      <c r="M38" s="196" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C39" s="1">
-        <f t="shared" si="2"/>
-        <v>2520</v>
-      </c>
-      <c r="D39" s="1">
-        <v>6</v>
-      </c>
-      <c r="E39" s="200">
-        <v>43.9</v>
-      </c>
-      <c r="F39" s="61" t="s">
-        <v>651</v>
-      </c>
-      <c r="G39" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> Sep 26</v>
-      </c>
-      <c r="H39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> Dec 06</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J39" t="s">
-        <v>781</v>
-      </c>
-      <c r="K39" s="196" t="s">
-        <v>789</v>
-      </c>
-      <c r="L39" t="s">
-        <v>793</v>
-      </c>
-      <c r="M39" s="196" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="1">
-        <f t="shared" si="2"/>
-        <v>2520</v>
-      </c>
-      <c r="D40" s="1">
-        <v>7</v>
-      </c>
-      <c r="E40" s="200">
-        <v>47.2</v>
-      </c>
-      <c r="F40" s="61" t="s">
-        <v>794</v>
       </c>
       <c r="G40" s="16" t="str">
         <f t="shared" si="0"/>
@@ -5663,45 +5606,45 @@
       </c>
       <c r="H40" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> Feb 15</v>
+        <v xml:space="preserve"> Nov 27</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="198" t="s">
         <v>781</v>
       </c>
       <c r="K40" s="196" t="s">
         <v>789</v>
       </c>
       <c r="L40" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="M40" s="196" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C41" s="1">
         <f t="shared" si="2"/>
         <v>2520</v>
       </c>
       <c r="D41" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E41" s="200">
-        <v>42.8</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="F41" s="61" t="s">
-        <v>402</v>
+        <v>667</v>
       </c>
       <c r="G41" s="16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Jun 20</v>
+        <v xml:space="preserve"> Jun 27</v>
       </c>
       <c r="H41" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> Dec 01</v>
+        <v xml:space="preserve"> Dec 02</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>0</v>
@@ -5710,32 +5653,32 @@
         <v>792</v>
       </c>
       <c r="K41" s="196" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="L41" t="s">
         <v>793</v>
       </c>
       <c r="M41" s="196" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C42" s="1">
         <f t="shared" si="2"/>
         <v>2520</v>
       </c>
       <c r="D42" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E42" s="200">
-        <v>41.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F42" s="61" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="G42" s="16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Jun 20</v>
+        <v xml:space="preserve"> Sep 26</v>
       </c>
       <c r="H42" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5744,11 +5687,11 @@
       <c r="I42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J42" s="198" t="s">
-        <v>792</v>
+      <c r="J42" t="s">
+        <v>781</v>
       </c>
       <c r="K42" s="196" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="L42" t="s">
         <v>793</v>
@@ -5757,175 +5700,175 @@
         <v>607</v>
       </c>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C43" s="1">
         <f t="shared" si="2"/>
         <v>2520</v>
       </c>
       <c r="D43" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E43" s="200">
-        <v>38.9</v>
+        <v>43.9</v>
       </c>
       <c r="F43" s="61" t="s">
-        <v>797</v>
+        <v>651</v>
       </c>
       <c r="G43" s="16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Jun 20</v>
+        <v xml:space="preserve"> Sep 26</v>
       </c>
       <c r="H43" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> Dec 01</v>
+        <v xml:space="preserve"> Dec 06</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J43" s="198" t="s">
-        <v>792</v>
+      <c r="J43" t="s">
+        <v>781</v>
       </c>
       <c r="K43" s="196" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="L43" t="s">
         <v>793</v>
       </c>
       <c r="M43" s="196" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C44" s="1">
         <f t="shared" si="2"/>
         <v>2520</v>
       </c>
       <c r="D44" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E44" s="200">
-        <v>33.299999999999997</v>
+        <v>47.2</v>
       </c>
       <c r="F44" s="61" t="s">
-        <v>661</v>
+        <v>794</v>
       </c>
       <c r="G44" s="16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Jul 04</v>
+        <v xml:space="preserve"> Sep 26</v>
       </c>
       <c r="H44" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> Jan 10</v>
+        <v xml:space="preserve"> Feb 15</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J44" s="198" t="s">
-        <v>798</v>
+      <c r="J44" t="s">
+        <v>781</v>
       </c>
       <c r="K44" s="196" t="s">
-        <v>610</v>
+        <v>789</v>
       </c>
       <c r="L44" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="M44" s="196" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C45" s="1">
         <f t="shared" si="2"/>
         <v>2520</v>
       </c>
       <c r="D45" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E45" s="200">
-        <v>34</v>
+        <v>42.8</v>
       </c>
       <c r="F45" s="61" t="s">
-        <v>797</v>
+        <v>402</v>
       </c>
       <c r="G45" s="16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Jul 05</v>
+        <v xml:space="preserve"> Jun 20</v>
       </c>
       <c r="H45" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> Jan 10</v>
+        <v xml:space="preserve"> Dec 01</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J45" s="198" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="K45" s="196" t="s">
-        <v>611</v>
+        <v>796</v>
       </c>
       <c r="L45" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="M45" s="196" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C46" s="1">
         <f t="shared" si="2"/>
         <v>2520</v>
       </c>
       <c r="D46" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E46" s="200">
-        <v>34.799999999999997</v>
+        <v>41.3</v>
       </c>
       <c r="F46" s="61" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G46" s="16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Jul 05</v>
+        <v xml:space="preserve"> Jun 20</v>
       </c>
       <c r="H46" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> Dec 04</v>
+        <v xml:space="preserve"> Dec 01</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J46" s="198" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="K46" s="196" t="s">
-        <v>611</v>
+        <v>796</v>
       </c>
       <c r="L46" t="s">
         <v>793</v>
       </c>
       <c r="M46" s="196" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C47" s="1">
         <f t="shared" si="2"/>
         <v>2520</v>
       </c>
       <c r="D47" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E47" s="200">
-        <v>28</v>
+        <v>38.9</v>
       </c>
       <c r="F47" s="61" t="s">
-        <v>659</v>
+        <v>797</v>
       </c>
       <c r="G47" s="16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Jul 05</v>
+        <v xml:space="preserve"> Jun 20</v>
       </c>
       <c r="H47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5935,10 +5878,10 @@
         <v>0</v>
       </c>
       <c r="J47" s="198" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="K47" s="196" t="s">
-        <v>611</v>
+        <v>796</v>
       </c>
       <c r="L47" t="s">
         <v>793</v>
@@ -5947,42 +5890,42 @@
         <v>607</v>
       </c>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C48" s="1">
         <f t="shared" si="2"/>
         <v>2520</v>
       </c>
       <c r="D48" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E48" s="200">
-        <v>43.9</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F48" s="61" t="s">
-        <v>799</v>
+        <v>661</v>
       </c>
       <c r="G48" s="16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Jun 20</v>
+        <v xml:space="preserve"> Jul 04</v>
       </c>
       <c r="H48" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> Jan 02</v>
+        <v xml:space="preserve"> Jan 10</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J48" s="198" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="K48" s="196" t="s">
-        <v>796</v>
+        <v>610</v>
       </c>
       <c r="L48" t="s">
         <v>783</v>
       </c>
       <c r="M48" s="196" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.25">
@@ -5991,21 +5934,21 @@
         <v>2520</v>
       </c>
       <c r="D49" s="1">
-        <v>16</v>
-      </c>
-      <c r="E49" s="201">
-        <v>23.6</v>
+        <v>12</v>
+      </c>
+      <c r="E49" s="200">
+        <v>34</v>
       </c>
       <c r="F49" s="61" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="G49" s="16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Jul 04</v>
+        <v xml:space="preserve"> Jul 05</v>
       </c>
       <c r="H49" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> Feb 04</v>
+        <v xml:space="preserve"> Jan 10</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>0</v>
@@ -6014,459 +5957,573 @@
         <v>798</v>
       </c>
       <c r="K49" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="L49" t="s">
+        <v>783</v>
+      </c>
+      <c r="M49" s="196" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C50" s="1">
+        <f t="shared" si="2"/>
+        <v>2520</v>
+      </c>
+      <c r="D50" s="1">
+        <v>13</v>
+      </c>
+      <c r="E50" s="200">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F50" s="61" t="s">
+        <v>664</v>
+      </c>
+      <c r="G50" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Jul 05</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> Dec 04</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K50" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="L50" t="s">
+        <v>793</v>
+      </c>
+      <c r="M50" s="196" t="s">
         <v>610</v>
       </c>
-      <c r="L49" t="s">
-        <v>795</v>
-      </c>
-      <c r="M49" s="196" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C50" s="156">
-        <v>2220</v>
-      </c>
-      <c r="D50" s="156">
-        <v>1</v>
-      </c>
-      <c r="E50" s="8">
-        <v>33.6</v>
-      </c>
-      <c r="F50" s="156" t="str">
-        <f>" " &amp; J50 &amp; " " &amp; K50</f>
-        <v xml:space="preserve"> Oct 14</v>
-      </c>
-      <c r="G50" s="83" t="s">
-        <v>649</v>
-      </c>
-      <c r="H50" s="156" t="s">
-        <v>650</v>
-      </c>
-      <c r="I50" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="J50" s="202" t="s">
-        <v>786</v>
-      </c>
-      <c r="K50" s="195" t="s">
-        <v>618</v>
-      </c>
-      <c r="L50" s="146" t="s">
-        <v>647</v>
-      </c>
-      <c r="M50" s="146"/>
-      <c r="N50" s="146"/>
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C51" s="1">
-        <v>2220</v>
+        <f t="shared" si="2"/>
+        <v>2520</v>
       </c>
       <c r="D51" s="1">
-        <v>2</v>
-      </c>
-      <c r="E51" s="2">
-        <v>31.5</v>
-      </c>
-      <c r="F51" s="1" t="str">
-        <f t="shared" ref="F51:F65" si="3">" " &amp; J51 &amp; " " &amp; K51</f>
-        <v xml:space="preserve"> Jun 07</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>649</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>410</v>
+        <v>14</v>
+      </c>
+      <c r="E51" s="200">
+        <v>28</v>
+      </c>
+      <c r="F51" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="G51" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Jul 05</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> Dec 01</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J51" s="198" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="K51" s="196" t="s">
-        <v>613</v>
+        <v>611</v>
+      </c>
+      <c r="L51" t="s">
+        <v>793</v>
+      </c>
+      <c r="M51" s="196" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="52" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C52" s="1">
-        <v>2220</v>
+        <f t="shared" si="2"/>
+        <v>2520</v>
       </c>
       <c r="D52" s="1">
-        <v>3</v>
-      </c>
-      <c r="E52" s="2">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="F52" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Sep 17</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>651</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>412</v>
+        <v>15</v>
+      </c>
+      <c r="E52" s="200">
+        <v>43.9</v>
+      </c>
+      <c r="F52" s="61" t="s">
+        <v>799</v>
+      </c>
+      <c r="G52" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Jun 20</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> Jan 02</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J52" s="198" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
       <c r="K52" s="196" t="s">
-        <v>801</v>
+        <v>796</v>
+      </c>
+      <c r="L52" t="s">
+        <v>783</v>
+      </c>
+      <c r="M52" s="196" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="53" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C53" s="1">
-        <v>2220</v>
+        <f t="shared" si="2"/>
+        <v>2520</v>
       </c>
       <c r="D53" s="1">
-        <v>4</v>
-      </c>
-      <c r="E53" s="2">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="F53" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Aug 15</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>649</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>652</v>
+        <v>16</v>
+      </c>
+      <c r="E53" s="201">
+        <v>23.6</v>
+      </c>
+      <c r="F53" s="61" t="s">
+        <v>800</v>
+      </c>
+      <c r="G53" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Jul 04</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> Feb 04</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J53" s="198" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="K53" s="196" t="s">
-        <v>619</v>
+        <v>610</v>
+      </c>
+      <c r="L53" t="s">
+        <v>795</v>
+      </c>
+      <c r="M53" s="196" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="54" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C54" s="1">
-        <v>2220</v>
-      </c>
-      <c r="D54" s="1">
-        <v>5</v>
-      </c>
-      <c r="E54" s="2">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="F54" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Aug 29</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>654</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J54" s="198" t="s">
-        <v>802</v>
-      </c>
-      <c r="K54" s="196" t="s">
-        <v>803</v>
+      <c r="C54" s="154">
+        <v>2530</v>
+      </c>
+      <c r="D54" s="156">
+        <v>1</v>
+      </c>
+      <c r="E54" s="199">
+        <v>33.6</v>
+      </c>
+      <c r="F54" s="129" t="s">
+        <v>780</v>
+      </c>
+      <c r="G54" s="83" t="str">
+        <f>" " &amp; J54 &amp; " " &amp; K54</f>
+        <v xml:space="preserve"> Sep 25</v>
+      </c>
+      <c r="H54" s="156" t="str">
+        <f>" " &amp; L54 &amp; " " &amp; M54</f>
+        <v xml:space="preserve"> Jan 09</v>
+      </c>
+      <c r="I54" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="146" t="s">
+        <v>781</v>
+      </c>
+      <c r="K54" s="195" t="s">
+        <v>782</v>
+      </c>
+      <c r="L54" s="146" t="s">
+        <v>783</v>
+      </c>
+      <c r="M54" s="195" t="s">
+        <v>615</v>
+      </c>
+      <c r="N54" s="146" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="55" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C55" s="1">
-        <v>2220</v>
+        <f>C54</f>
+        <v>2530</v>
       </c>
       <c r="D55" s="1">
-        <v>6</v>
-      </c>
-      <c r="E55" s="2">
-        <v>43.9</v>
-      </c>
-      <c r="F55" s="1" t="str">
-        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E55" s="200">
+        <v>31.5</v>
+      </c>
+      <c r="F55" s="61" t="s">
+        <v>785</v>
+      </c>
+      <c r="G55" s="16" t="str">
+        <f t="shared" ref="G55:G69" si="3">" " &amp; J55 &amp; " " &amp; K55</f>
         <v xml:space="preserve"> Oct 02</v>
       </c>
-      <c r="G55" s="16" t="s">
-        <v>656</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>657</v>
+      <c r="H55" s="1" t="str">
+        <f t="shared" ref="H55:H69" si="4">" " &amp; L55 &amp; " " &amp; M55</f>
+        <v xml:space="preserve"> Jan 10</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J55" s="198" t="s">
+      <c r="J55" t="s">
         <v>786</v>
       </c>
       <c r="K55" s="196" t="s">
         <v>608</v>
       </c>
+      <c r="L55" t="s">
+        <v>783</v>
+      </c>
+      <c r="M55" s="196" t="s">
+        <v>616</v>
+      </c>
+      <c r="N55" s="197" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C56" s="1">
-        <v>2220</v>
+        <f t="shared" ref="C56:C69" si="5">C55</f>
+        <v>2530</v>
       </c>
       <c r="D56" s="1">
-        <v>7</v>
-      </c>
-      <c r="E56" s="2">
-        <v>47.2</v>
-      </c>
-      <c r="F56" s="1" t="str">
+        <v>3</v>
+      </c>
+      <c r="E56" s="200">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="F56" s="61" t="s">
+        <v>788</v>
+      </c>
+      <c r="G56" s="16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Oct 26</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>656</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>658</v>
+        <v xml:space="preserve"> Sep 26</v>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Nov 27</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J56" s="198" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="K56" s="196" t="s">
         <v>789</v>
       </c>
+      <c r="L56" t="s">
+        <v>790</v>
+      </c>
+      <c r="M56" s="196" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C57" s="1">
-        <v>2220</v>
+        <f t="shared" si="5"/>
+        <v>2530</v>
       </c>
       <c r="D57" s="1">
-        <v>8</v>
-      </c>
-      <c r="E57" s="2">
-        <v>42.8</v>
-      </c>
-      <c r="F57" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="E57" s="200">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F57" s="61" t="s">
+        <v>667</v>
+      </c>
+      <c r="G57" s="16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Aug 07</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>654</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>657</v>
+        <v xml:space="preserve"> Jun 27</v>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Dec 02</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J57" s="198" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="K57" s="196" t="s">
-        <v>613</v>
+        <v>791</v>
+      </c>
+      <c r="L57" t="s">
+        <v>793</v>
+      </c>
+      <c r="M57" s="196" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C58" s="1">
-        <v>2220</v>
+        <f t="shared" si="5"/>
+        <v>2530</v>
       </c>
       <c r="D58" s="1">
-        <v>9</v>
-      </c>
-      <c r="E58" s="2">
-        <v>41.3</v>
-      </c>
-      <c r="F58" s="1" t="str">
+        <v>5</v>
+      </c>
+      <c r="E58" s="200">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F58" s="61" t="s">
+        <v>653</v>
+      </c>
+      <c r="G58" s="16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Aug 14</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>654</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>657</v>
+        <v xml:space="preserve"> Sep 26</v>
+      </c>
+      <c r="H58" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Dec 01</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J58" s="198" t="s">
-        <v>802</v>
+      <c r="J58" t="s">
+        <v>781</v>
       </c>
       <c r="K58" s="196" t="s">
-        <v>618</v>
+        <v>789</v>
+      </c>
+      <c r="L58" t="s">
+        <v>793</v>
+      </c>
+      <c r="M58" s="196" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C59" s="1">
-        <v>2220</v>
+        <f t="shared" si="5"/>
+        <v>2530</v>
       </c>
       <c r="D59" s="1">
-        <v>10</v>
-      </c>
-      <c r="E59" s="2">
-        <v>38.9</v>
-      </c>
-      <c r="F59" s="1" t="str">
+        <v>6</v>
+      </c>
+      <c r="E59" s="200">
+        <v>43.9</v>
+      </c>
+      <c r="F59" s="61" t="s">
+        <v>651</v>
+      </c>
+      <c r="G59" s="16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Jul 02</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>654</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>660</v>
+        <v xml:space="preserve"> Sep 26</v>
+      </c>
+      <c r="H59" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Dec 06</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J59" s="198" t="s">
-        <v>798</v>
+      <c r="J59" t="s">
+        <v>781</v>
       </c>
       <c r="K59" s="196" t="s">
-        <v>608</v>
+        <v>789</v>
+      </c>
+      <c r="L59" t="s">
+        <v>793</v>
+      </c>
+      <c r="M59" s="196" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C60" s="1">
-        <v>2220</v>
+        <f t="shared" si="5"/>
+        <v>2530</v>
       </c>
       <c r="D60" s="1">
+        <v>7</v>
+      </c>
+      <c r="E60" s="200">
+        <v>47.2</v>
+      </c>
+      <c r="F60" s="61" t="s">
+        <v>794</v>
+      </c>
+      <c r="G60" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Sep 26</v>
+      </c>
+      <c r="H60" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Feb 15</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>781</v>
+      </c>
+      <c r="K60" s="196" t="s">
+        <v>789</v>
+      </c>
+      <c r="L60" t="s">
+        <v>795</v>
+      </c>
+      <c r="M60" s="196" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C61" s="1">
+        <f t="shared" si="5"/>
+        <v>2530</v>
+      </c>
+      <c r="D61" s="1">
+        <v>8</v>
+      </c>
+      <c r="E61" s="200">
+        <v>42.8</v>
+      </c>
+      <c r="F61" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="G61" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Jun 20</v>
+      </c>
+      <c r="H61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J61" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K61" s="196" t="s">
+        <v>796</v>
+      </c>
+      <c r="L61" t="s">
+        <v>793</v>
+      </c>
+      <c r="M61" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C62" s="1">
+        <f t="shared" si="5"/>
+        <v>2530</v>
+      </c>
+      <c r="D62" s="1">
+        <v>9</v>
+      </c>
+      <c r="E62" s="200">
+        <v>41.3</v>
+      </c>
+      <c r="F62" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="G62" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Jun 20</v>
+      </c>
+      <c r="H62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J62" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K62" s="196" t="s">
+        <v>796</v>
+      </c>
+      <c r="L62" t="s">
+        <v>793</v>
+      </c>
+      <c r="M62" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C63" s="1">
+        <f t="shared" si="5"/>
+        <v>2530</v>
+      </c>
+      <c r="D63" s="1">
+        <v>10</v>
+      </c>
+      <c r="E63" s="200">
+        <v>38.9</v>
+      </c>
+      <c r="F63" s="61" t="s">
+        <v>797</v>
+      </c>
+      <c r="G63" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Jun 20</v>
+      </c>
+      <c r="H63" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K63" s="196" t="s">
+        <v>796</v>
+      </c>
+      <c r="L63" t="s">
+        <v>793</v>
+      </c>
+      <c r="M63" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C64" s="1">
+        <f t="shared" si="5"/>
+        <v>2530</v>
+      </c>
+      <c r="D64" s="1">
         <v>11</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E64" s="200">
         <v>33.299999999999997</v>
       </c>
-      <c r="F60" s="1" t="str">
+      <c r="F64" s="61" t="s">
+        <v>661</v>
+      </c>
+      <c r="G64" s="16" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> Jul 04</v>
       </c>
-      <c r="G60" s="16" t="s">
-        <v>662</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J60" s="198" t="s">
-        <v>798</v>
-      </c>
-      <c r="K60" s="196" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C61" s="1">
-        <v>2220</v>
-      </c>
-      <c r="D61" s="1">
-        <v>12</v>
-      </c>
-      <c r="E61" s="2">
-        <v>34</v>
-      </c>
-      <c r="F61" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Jul 02</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>666</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J61" s="198" t="s">
-        <v>798</v>
-      </c>
-      <c r="K61" s="196" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C62" s="1">
-        <v>2220</v>
-      </c>
-      <c r="D62" s="1">
-        <v>13</v>
-      </c>
-      <c r="E62" s="2">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="F62" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Aug 12</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J62" s="198" t="s">
-        <v>802</v>
-      </c>
-      <c r="K62" s="196" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C63" s="1">
-        <v>2220</v>
-      </c>
-      <c r="D63" s="1">
-        <v>14</v>
-      </c>
-      <c r="E63" s="2">
-        <v>28</v>
-      </c>
-      <c r="F63" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Aug 14</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J63" s="198" t="s">
-        <v>802</v>
-      </c>
-      <c r="K63" s="196" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C64" s="1">
-        <v>2220</v>
-      </c>
-      <c r="D64" s="1">
-        <v>15</v>
-      </c>
-      <c r="E64" s="2">
-        <v>43.9</v>
-      </c>
-      <c r="F64" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Jul 08</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>666</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>657</v>
+      <c r="H64" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Jan 10</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>0</v>
@@ -6475,28 +6532,36 @@
         <v>798</v>
       </c>
       <c r="K64" s="196" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+      <c r="L64" t="s">
+        <v>783</v>
+      </c>
+      <c r="M64" s="196" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C65" s="1">
-        <v>2220</v>
+        <f t="shared" si="5"/>
+        <v>2530</v>
       </c>
       <c r="D65" s="1">
-        <v>16</v>
-      </c>
-      <c r="E65" s="20">
-        <v>23.6</v>
-      </c>
-      <c r="F65" s="1" t="str">
+        <v>12</v>
+      </c>
+      <c r="E65" s="200">
+        <v>34</v>
+      </c>
+      <c r="F65" s="61" t="s">
+        <v>797</v>
+      </c>
+      <c r="G65" s="16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Jul 03</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>667</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>420</v>
+        <v xml:space="preserve"> Jul 05</v>
+      </c>
+      <c r="H65" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Jan 10</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>0</v>
@@ -6505,437 +6570,4145 @@
         <v>798</v>
       </c>
       <c r="K65" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="L65" t="s">
+        <v>783</v>
+      </c>
+      <c r="M65" s="196" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C66" s="1">
+        <f t="shared" si="5"/>
+        <v>2530</v>
+      </c>
+      <c r="D66" s="1">
+        <v>13</v>
+      </c>
+      <c r="E66" s="200">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F66" s="61" t="s">
+        <v>664</v>
+      </c>
+      <c r="G66" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Jul 05</v>
+      </c>
+      <c r="H66" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Dec 04</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J66" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K66" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="L66" t="s">
+        <v>793</v>
+      </c>
+      <c r="M66" s="196" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C67" s="1">
+        <f t="shared" si="5"/>
+        <v>2530</v>
+      </c>
+      <c r="D67" s="1">
+        <v>14</v>
+      </c>
+      <c r="E67" s="200">
+        <v>28</v>
+      </c>
+      <c r="F67" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="G67" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Jul 05</v>
+      </c>
+      <c r="H67" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J67" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K67" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="L67" t="s">
+        <v>793</v>
+      </c>
+      <c r="M67" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C68" s="1">
+        <f t="shared" si="5"/>
+        <v>2530</v>
+      </c>
+      <c r="D68" s="1">
+        <v>15</v>
+      </c>
+      <c r="E68" s="200">
+        <v>43.9</v>
+      </c>
+      <c r="F68" s="61" t="s">
+        <v>799</v>
+      </c>
+      <c r="G68" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Jun 20</v>
+      </c>
+      <c r="H68" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Jan 02</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J68" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K68" s="196" t="s">
+        <v>796</v>
+      </c>
+      <c r="L68" t="s">
+        <v>783</v>
+      </c>
+      <c r="M68" s="196" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C69" s="1">
+        <f t="shared" si="5"/>
+        <v>2530</v>
+      </c>
+      <c r="D69" s="1">
+        <v>16</v>
+      </c>
+      <c r="E69" s="201">
+        <v>23.6</v>
+      </c>
+      <c r="F69" s="61" t="s">
+        <v>800</v>
+      </c>
+      <c r="G69" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Jul 04</v>
+      </c>
+      <c r="H69" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Feb 04</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J69" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K69" s="196" t="s">
+        <v>610</v>
+      </c>
+      <c r="L69" t="s">
+        <v>795</v>
+      </c>
+      <c r="M69" s="196" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C70" s="154">
+        <v>2820</v>
+      </c>
+      <c r="D70" s="156">
+        <v>1</v>
+      </c>
+      <c r="E70" s="199">
+        <v>33.6</v>
+      </c>
+      <c r="F70" s="129" t="s">
+        <v>780</v>
+      </c>
+      <c r="G70" s="83" t="str">
+        <f>" " &amp; J70 &amp; " " &amp; K70</f>
+        <v xml:space="preserve"> Sep 25</v>
+      </c>
+      <c r="H70" s="156" t="str">
+        <f>" " &amp; L70 &amp; " " &amp; M70</f>
+        <v xml:space="preserve"> Jan 09</v>
+      </c>
+      <c r="I70" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="J70" s="146" t="s">
+        <v>781</v>
+      </c>
+      <c r="K70" s="195" t="s">
+        <v>782</v>
+      </c>
+      <c r="L70" s="146" t="s">
+        <v>783</v>
+      </c>
+      <c r="M70" s="195" t="s">
+        <v>615</v>
+      </c>
+      <c r="N70" s="146" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C71" s="1">
+        <f>C70</f>
+        <v>2820</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2</v>
+      </c>
+      <c r="E71" s="200">
+        <v>31.5</v>
+      </c>
+      <c r="F71" s="61" t="s">
+        <v>785</v>
+      </c>
+      <c r="G71" s="16" t="str">
+        <f t="shared" ref="G71:G85" si="6">" " &amp; J71 &amp; " " &amp; K71</f>
+        <v xml:space="preserve"> Oct 02</v>
+      </c>
+      <c r="H71" s="1" t="str">
+        <f t="shared" ref="H71:H85" si="7">" " &amp; L71 &amp; " " &amp; M71</f>
+        <v xml:space="preserve"> Jan 10</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>786</v>
+      </c>
+      <c r="K71" s="196" t="s">
+        <v>608</v>
+      </c>
+      <c r="L71" t="s">
+        <v>783</v>
+      </c>
+      <c r="M71" s="196" t="s">
+        <v>616</v>
+      </c>
+      <c r="N71" s="197" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="72" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C72" s="1">
+        <f t="shared" ref="C72:C85" si="8">C71</f>
+        <v>2820</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3</v>
+      </c>
+      <c r="E72" s="200">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="F72" s="61" t="s">
+        <v>788</v>
+      </c>
+      <c r="G72" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Sep 26</v>
+      </c>
+      <c r="H72" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> Nov 27</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J72" s="198" t="s">
+        <v>781</v>
+      </c>
+      <c r="K72" s="196" t="s">
+        <v>789</v>
+      </c>
+      <c r="L72" t="s">
+        <v>790</v>
+      </c>
+      <c r="M72" s="196" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="73" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C73" s="1">
+        <f t="shared" si="8"/>
+        <v>2820</v>
+      </c>
+      <c r="D73" s="1">
+        <v>4</v>
+      </c>
+      <c r="E73" s="200">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F73" s="61" t="s">
+        <v>667</v>
+      </c>
+      <c r="G73" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Jun 27</v>
+      </c>
+      <c r="H73" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> Dec 02</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J73" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K73" s="196" t="s">
+        <v>791</v>
+      </c>
+      <c r="L73" t="s">
+        <v>793</v>
+      </c>
+      <c r="M73" s="196" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="74" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C74" s="1">
+        <f t="shared" si="8"/>
+        <v>2820</v>
+      </c>
+      <c r="D74" s="1">
+        <v>5</v>
+      </c>
+      <c r="E74" s="200">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F74" s="61" t="s">
+        <v>653</v>
+      </c>
+      <c r="G74" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Sep 26</v>
+      </c>
+      <c r="H74" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>781</v>
+      </c>
+      <c r="K74" s="196" t="s">
+        <v>789</v>
+      </c>
+      <c r="L74" t="s">
+        <v>793</v>
+      </c>
+      <c r="M74" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="75" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C75" s="1">
+        <f t="shared" si="8"/>
+        <v>2820</v>
+      </c>
+      <c r="D75" s="1">
+        <v>6</v>
+      </c>
+      <c r="E75" s="200">
+        <v>43.9</v>
+      </c>
+      <c r="F75" s="61" t="s">
+        <v>651</v>
+      </c>
+      <c r="G75" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Sep 26</v>
+      </c>
+      <c r="H75" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> Dec 06</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J75" t="s">
+        <v>781</v>
+      </c>
+      <c r="K75" s="196" t="s">
+        <v>789</v>
+      </c>
+      <c r="L75" t="s">
+        <v>793</v>
+      </c>
+      <c r="M75" s="196" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="76" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C76" s="1">
+        <f t="shared" si="8"/>
+        <v>2820</v>
+      </c>
+      <c r="D76" s="1">
+        <v>7</v>
+      </c>
+      <c r="E76" s="200">
+        <v>47.2</v>
+      </c>
+      <c r="F76" s="61" t="s">
+        <v>794</v>
+      </c>
+      <c r="G76" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Sep 26</v>
+      </c>
+      <c r="H76" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> Feb 15</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J76" t="s">
+        <v>781</v>
+      </c>
+      <c r="K76" s="196" t="s">
+        <v>789</v>
+      </c>
+      <c r="L76" t="s">
+        <v>795</v>
+      </c>
+      <c r="M76" s="196" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="77" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C77" s="1">
+        <f t="shared" si="8"/>
+        <v>2820</v>
+      </c>
+      <c r="D77" s="1">
+        <v>8</v>
+      </c>
+      <c r="E77" s="200">
+        <v>42.8</v>
+      </c>
+      <c r="F77" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="G77" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Jun 20</v>
+      </c>
+      <c r="H77" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J77" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K77" s="196" t="s">
+        <v>796</v>
+      </c>
+      <c r="L77" t="s">
+        <v>793</v>
+      </c>
+      <c r="M77" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="78" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C78" s="1">
+        <f t="shared" si="8"/>
+        <v>2820</v>
+      </c>
+      <c r="D78" s="1">
+        <v>9</v>
+      </c>
+      <c r="E78" s="200">
+        <v>41.3</v>
+      </c>
+      <c r="F78" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="G78" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Jun 20</v>
+      </c>
+      <c r="H78" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J78" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K78" s="196" t="s">
+        <v>796</v>
+      </c>
+      <c r="L78" t="s">
+        <v>793</v>
+      </c>
+      <c r="M78" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="79" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C79" s="1">
+        <f t="shared" si="8"/>
+        <v>2820</v>
+      </c>
+      <c r="D79" s="1">
+        <v>10</v>
+      </c>
+      <c r="E79" s="200">
+        <v>38.9</v>
+      </c>
+      <c r="F79" s="61" t="s">
+        <v>797</v>
+      </c>
+      <c r="G79" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Jun 20</v>
+      </c>
+      <c r="H79" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J79" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K79" s="196" t="s">
+        <v>796</v>
+      </c>
+      <c r="L79" t="s">
+        <v>793</v>
+      </c>
+      <c r="M79" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="80" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C80" s="1">
+        <f t="shared" si="8"/>
+        <v>2820</v>
+      </c>
+      <c r="D80" s="1">
+        <v>11</v>
+      </c>
+      <c r="E80" s="200">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F80" s="61" t="s">
+        <v>661</v>
+      </c>
+      <c r="G80" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Jul 04</v>
+      </c>
+      <c r="H80" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> Jan 10</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J80" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K80" s="196" t="s">
+        <v>610</v>
+      </c>
+      <c r="L80" t="s">
+        <v>783</v>
+      </c>
+      <c r="M80" s="196" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C81" s="1">
+        <f t="shared" si="8"/>
+        <v>2820</v>
+      </c>
+      <c r="D81" s="1">
+        <v>12</v>
+      </c>
+      <c r="E81" s="200">
+        <v>34</v>
+      </c>
+      <c r="F81" s="61" t="s">
+        <v>797</v>
+      </c>
+      <c r="G81" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Jul 05</v>
+      </c>
+      <c r="H81" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> Jan 10</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J81" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K81" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="L81" t="s">
+        <v>783</v>
+      </c>
+      <c r="M81" s="196" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C82" s="1">
+        <f t="shared" si="8"/>
+        <v>2820</v>
+      </c>
+      <c r="D82" s="1">
+        <v>13</v>
+      </c>
+      <c r="E82" s="200">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F82" s="61" t="s">
+        <v>664</v>
+      </c>
+      <c r="G82" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Jul 05</v>
+      </c>
+      <c r="H82" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> Dec 04</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J82" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K82" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="L82" t="s">
+        <v>793</v>
+      </c>
+      <c r="M82" s="196" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C83" s="1">
+        <f t="shared" si="8"/>
+        <v>2820</v>
+      </c>
+      <c r="D83" s="1">
+        <v>14</v>
+      </c>
+      <c r="E83" s="200">
+        <v>28</v>
+      </c>
+      <c r="F83" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="G83" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Jul 05</v>
+      </c>
+      <c r="H83" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J83" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K83" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="L83" t="s">
+        <v>793</v>
+      </c>
+      <c r="M83" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C84" s="1">
+        <f t="shared" si="8"/>
+        <v>2820</v>
+      </c>
+      <c r="D84" s="1">
+        <v>15</v>
+      </c>
+      <c r="E84" s="200">
+        <v>43.9</v>
+      </c>
+      <c r="F84" s="61" t="s">
+        <v>799</v>
+      </c>
+      <c r="G84" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Jun 20</v>
+      </c>
+      <c r="H84" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> Jan 02</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J84" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K84" s="196" t="s">
+        <v>796</v>
+      </c>
+      <c r="L84" t="s">
+        <v>783</v>
+      </c>
+      <c r="M84" s="196" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C85" s="1">
+        <f t="shared" si="8"/>
+        <v>2820</v>
+      </c>
+      <c r="D85" s="1">
+        <v>16</v>
+      </c>
+      <c r="E85" s="201">
+        <v>23.6</v>
+      </c>
+      <c r="F85" s="61" t="s">
+        <v>800</v>
+      </c>
+      <c r="G85" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> Jul 04</v>
+      </c>
+      <c r="H85" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> Feb 04</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J85" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K85" s="196" t="s">
+        <v>610</v>
+      </c>
+      <c r="L85" t="s">
+        <v>795</v>
+      </c>
+      <c r="M85" s="196" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C86" s="154">
+        <v>2830</v>
+      </c>
+      <c r="D86" s="156">
+        <v>1</v>
+      </c>
+      <c r="E86" s="199">
+        <v>33.6</v>
+      </c>
+      <c r="F86" s="129" t="s">
+        <v>780</v>
+      </c>
+      <c r="G86" s="83" t="str">
+        <f>" " &amp; J86 &amp; " " &amp; K86</f>
+        <v xml:space="preserve"> Sep 25</v>
+      </c>
+      <c r="H86" s="156" t="str">
+        <f>" " &amp; L86 &amp; " " &amp; M86</f>
+        <v xml:space="preserve"> Jan 09</v>
+      </c>
+      <c r="I86" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="J86" s="146" t="s">
+        <v>781</v>
+      </c>
+      <c r="K86" s="195" t="s">
+        <v>782</v>
+      </c>
+      <c r="L86" s="146" t="s">
+        <v>783</v>
+      </c>
+      <c r="M86" s="195" t="s">
+        <v>615</v>
+      </c>
+      <c r="N86" s="146" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C87" s="1">
+        <f>C86</f>
+        <v>2830</v>
+      </c>
+      <c r="D87" s="1">
+        <v>2</v>
+      </c>
+      <c r="E87" s="200">
+        <v>31.5</v>
+      </c>
+      <c r="F87" s="61" t="s">
+        <v>785</v>
+      </c>
+      <c r="G87" s="16" t="str">
+        <f t="shared" ref="G87:G101" si="9">" " &amp; J87 &amp; " " &amp; K87</f>
+        <v xml:space="preserve"> Oct 02</v>
+      </c>
+      <c r="H87" s="1" t="str">
+        <f t="shared" ref="H87:H101" si="10">" " &amp; L87 &amp; " " &amp; M87</f>
+        <v xml:space="preserve"> Jan 10</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J87" t="s">
+        <v>786</v>
+      </c>
+      <c r="K87" s="196" t="s">
+        <v>608</v>
+      </c>
+      <c r="L87" t="s">
+        <v>783</v>
+      </c>
+      <c r="M87" s="196" t="s">
+        <v>616</v>
+      </c>
+      <c r="N87" s="197" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C88" s="1">
+        <f t="shared" ref="C88:C101" si="11">C87</f>
+        <v>2830</v>
+      </c>
+      <c r="D88" s="1">
+        <v>3</v>
+      </c>
+      <c r="E88" s="200">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="F88" s="61" t="s">
+        <v>788</v>
+      </c>
+      <c r="G88" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Sep 26</v>
+      </c>
+      <c r="H88" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> Nov 27</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J88" s="198" t="s">
+        <v>781</v>
+      </c>
+      <c r="K88" s="196" t="s">
+        <v>789</v>
+      </c>
+      <c r="L88" t="s">
+        <v>790</v>
+      </c>
+      <c r="M88" s="196" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C89" s="1">
+        <f t="shared" si="11"/>
+        <v>2830</v>
+      </c>
+      <c r="D89" s="1">
+        <v>4</v>
+      </c>
+      <c r="E89" s="200">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F89" s="61" t="s">
+        <v>667</v>
+      </c>
+      <c r="G89" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Jun 27</v>
+      </c>
+      <c r="H89" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> Dec 02</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J89" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K89" s="196" t="s">
+        <v>791</v>
+      </c>
+      <c r="L89" t="s">
+        <v>793</v>
+      </c>
+      <c r="M89" s="196" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C90" s="1">
+        <f t="shared" si="11"/>
+        <v>2830</v>
+      </c>
+      <c r="D90" s="1">
+        <v>5</v>
+      </c>
+      <c r="E90" s="200">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F90" s="61" t="s">
+        <v>653</v>
+      </c>
+      <c r="G90" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Sep 26</v>
+      </c>
+      <c r="H90" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>781</v>
+      </c>
+      <c r="K90" s="196" t="s">
+        <v>789</v>
+      </c>
+      <c r="L90" t="s">
+        <v>793</v>
+      </c>
+      <c r="M90" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C91" s="1">
+        <f t="shared" si="11"/>
+        <v>2830</v>
+      </c>
+      <c r="D91" s="1">
+        <v>6</v>
+      </c>
+      <c r="E91" s="200">
+        <v>43.9</v>
+      </c>
+      <c r="F91" s="61" t="s">
+        <v>651</v>
+      </c>
+      <c r="G91" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Sep 26</v>
+      </c>
+      <c r="H91" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> Dec 06</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>781</v>
+      </c>
+      <c r="K91" s="196" t="s">
+        <v>789</v>
+      </c>
+      <c r="L91" t="s">
+        <v>793</v>
+      </c>
+      <c r="M91" s="196" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C92" s="1">
+        <f t="shared" si="11"/>
+        <v>2830</v>
+      </c>
+      <c r="D92" s="1">
+        <v>7</v>
+      </c>
+      <c r="E92" s="200">
+        <v>47.2</v>
+      </c>
+      <c r="F92" s="61" t="s">
+        <v>794</v>
+      </c>
+      <c r="G92" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Sep 26</v>
+      </c>
+      <c r="H92" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> Feb 15</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>781</v>
+      </c>
+      <c r="K92" s="196" t="s">
+        <v>789</v>
+      </c>
+      <c r="L92" t="s">
+        <v>795</v>
+      </c>
+      <c r="M92" s="196" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C93" s="1">
+        <f t="shared" si="11"/>
+        <v>2830</v>
+      </c>
+      <c r="D93" s="1">
+        <v>8</v>
+      </c>
+      <c r="E93" s="200">
+        <v>42.8</v>
+      </c>
+      <c r="F93" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="G93" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Jun 20</v>
+      </c>
+      <c r="H93" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J93" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K93" s="196" t="s">
+        <v>796</v>
+      </c>
+      <c r="L93" t="s">
+        <v>793</v>
+      </c>
+      <c r="M93" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C94" s="1">
+        <f t="shared" si="11"/>
+        <v>2830</v>
+      </c>
+      <c r="D94" s="1">
+        <v>9</v>
+      </c>
+      <c r="E94" s="200">
+        <v>41.3</v>
+      </c>
+      <c r="F94" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="G94" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Jun 20</v>
+      </c>
+      <c r="H94" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J94" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K94" s="196" t="s">
+        <v>796</v>
+      </c>
+      <c r="L94" t="s">
+        <v>793</v>
+      </c>
+      <c r="M94" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C95" s="1">
+        <f t="shared" si="11"/>
+        <v>2830</v>
+      </c>
+      <c r="D95" s="1">
+        <v>10</v>
+      </c>
+      <c r="E95" s="200">
+        <v>38.9</v>
+      </c>
+      <c r="F95" s="61" t="s">
+        <v>797</v>
+      </c>
+      <c r="G95" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Jun 20</v>
+      </c>
+      <c r="H95" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J95" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K95" s="196" t="s">
+        <v>796</v>
+      </c>
+      <c r="L95" t="s">
+        <v>793</v>
+      </c>
+      <c r="M95" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C96" s="1">
+        <f t="shared" si="11"/>
+        <v>2830</v>
+      </c>
+      <c r="D96" s="1">
+        <v>11</v>
+      </c>
+      <c r="E96" s="200">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F96" s="61" t="s">
+        <v>661</v>
+      </c>
+      <c r="G96" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Jul 04</v>
+      </c>
+      <c r="H96" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> Jan 10</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J96" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K96" s="196" t="s">
+        <v>610</v>
+      </c>
+      <c r="L96" t="s">
+        <v>783</v>
+      </c>
+      <c r="M96" s="196" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C97" s="1">
+        <f t="shared" si="11"/>
+        <v>2830</v>
+      </c>
+      <c r="D97" s="1">
+        <v>12</v>
+      </c>
+      <c r="E97" s="200">
+        <v>34</v>
+      </c>
+      <c r="F97" s="61" t="s">
+        <v>797</v>
+      </c>
+      <c r="G97" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Jul 05</v>
+      </c>
+      <c r="H97" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> Jan 10</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J97" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K97" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="L97" t="s">
+        <v>783</v>
+      </c>
+      <c r="M97" s="196" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C98" s="1">
+        <f t="shared" si="11"/>
+        <v>2830</v>
+      </c>
+      <c r="D98" s="1">
+        <v>13</v>
+      </c>
+      <c r="E98" s="200">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F98" s="61" t="s">
+        <v>664</v>
+      </c>
+      <c r="G98" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Jul 05</v>
+      </c>
+      <c r="H98" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> Dec 04</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J98" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K98" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="L98" t="s">
+        <v>793</v>
+      </c>
+      <c r="M98" s="196" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C99" s="1">
+        <f t="shared" si="11"/>
+        <v>2830</v>
+      </c>
+      <c r="D99" s="1">
+        <v>14</v>
+      </c>
+      <c r="E99" s="200">
+        <v>28</v>
+      </c>
+      <c r="F99" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="G99" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Jul 05</v>
+      </c>
+      <c r="H99" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J99" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K99" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="L99" t="s">
+        <v>793</v>
+      </c>
+      <c r="M99" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C100" s="1">
+        <f t="shared" si="11"/>
+        <v>2830</v>
+      </c>
+      <c r="D100" s="1">
+        <v>15</v>
+      </c>
+      <c r="E100" s="200">
+        <v>43.9</v>
+      </c>
+      <c r="F100" s="61" t="s">
+        <v>799</v>
+      </c>
+      <c r="G100" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Jun 20</v>
+      </c>
+      <c r="H100" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> Jan 02</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J100" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K100" s="196" t="s">
+        <v>796</v>
+      </c>
+      <c r="L100" t="s">
+        <v>783</v>
+      </c>
+      <c r="M100" s="196" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C101" s="1">
+        <f t="shared" si="11"/>
+        <v>2830</v>
+      </c>
+      <c r="D101" s="1">
+        <v>16</v>
+      </c>
+      <c r="E101" s="201">
+        <v>23.6</v>
+      </c>
+      <c r="F101" s="61" t="s">
+        <v>800</v>
+      </c>
+      <c r="G101" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> Jul 04</v>
+      </c>
+      <c r="H101" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> Feb 04</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J101" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K101" s="196" t="s">
+        <v>610</v>
+      </c>
+      <c r="L101" t="s">
+        <v>795</v>
+      </c>
+      <c r="M101" s="196" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C102" s="154">
+        <v>2831</v>
+      </c>
+      <c r="D102" s="156">
+        <v>1</v>
+      </c>
+      <c r="E102" s="199">
+        <v>33.6</v>
+      </c>
+      <c r="F102" s="129" t="s">
+        <v>780</v>
+      </c>
+      <c r="G102" s="83" t="str">
+        <f>" " &amp; J102 &amp; " " &amp; K102</f>
+        <v xml:space="preserve"> Sep 25</v>
+      </c>
+      <c r="H102" s="156" t="str">
+        <f>" " &amp; L102 &amp; " " &amp; M102</f>
+        <v xml:space="preserve"> Jan 09</v>
+      </c>
+      <c r="I102" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="J102" s="146" t="s">
+        <v>781</v>
+      </c>
+      <c r="K102" s="195" t="s">
+        <v>782</v>
+      </c>
+      <c r="L102" s="146" t="s">
+        <v>783</v>
+      </c>
+      <c r="M102" s="195" t="s">
+        <v>615</v>
+      </c>
+      <c r="N102" s="146" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="103" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C103" s="1">
+        <f>C102</f>
+        <v>2831</v>
+      </c>
+      <c r="D103" s="1">
+        <v>2</v>
+      </c>
+      <c r="E103" s="200">
+        <v>31.5</v>
+      </c>
+      <c r="F103" s="61" t="s">
+        <v>785</v>
+      </c>
+      <c r="G103" s="16" t="str">
+        <f t="shared" ref="G103:G117" si="12">" " &amp; J103 &amp; " " &amp; K103</f>
+        <v xml:space="preserve"> Oct 02</v>
+      </c>
+      <c r="H103" s="1" t="str">
+        <f t="shared" ref="H103:H117" si="13">" " &amp; L103 &amp; " " &amp; M103</f>
+        <v xml:space="preserve"> Jan 10</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J103" t="s">
+        <v>786</v>
+      </c>
+      <c r="K103" s="196" t="s">
+        <v>608</v>
+      </c>
+      <c r="L103" t="s">
+        <v>783</v>
+      </c>
+      <c r="M103" s="196" t="s">
+        <v>616</v>
+      </c>
+      <c r="N103" s="197" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="104" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C104" s="1">
+        <f t="shared" ref="C104:C117" si="14">C103</f>
+        <v>2831</v>
+      </c>
+      <c r="D104" s="1">
+        <v>3</v>
+      </c>
+      <c r="E104" s="200">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="F104" s="61" t="s">
+        <v>788</v>
+      </c>
+      <c r="G104" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> Sep 26</v>
+      </c>
+      <c r="H104" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> Nov 27</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J104" s="198" t="s">
+        <v>781</v>
+      </c>
+      <c r="K104" s="196" t="s">
+        <v>789</v>
+      </c>
+      <c r="L104" t="s">
+        <v>790</v>
+      </c>
+      <c r="M104" s="196" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="105" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C105" s="1">
+        <f t="shared" si="14"/>
+        <v>2831</v>
+      </c>
+      <c r="D105" s="1">
+        <v>4</v>
+      </c>
+      <c r="E105" s="200">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F105" s="61" t="s">
+        <v>667</v>
+      </c>
+      <c r="G105" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> Jun 27</v>
+      </c>
+      <c r="H105" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> Dec 02</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J105" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K105" s="196" t="s">
+        <v>791</v>
+      </c>
+      <c r="L105" t="s">
+        <v>793</v>
+      </c>
+      <c r="M105" s="196" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="106" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C106" s="1">
+        <f t="shared" si="14"/>
+        <v>2831</v>
+      </c>
+      <c r="D106" s="1">
+        <v>5</v>
+      </c>
+      <c r="E106" s="200">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F106" s="61" t="s">
+        <v>653</v>
+      </c>
+      <c r="G106" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> Sep 26</v>
+      </c>
+      <c r="H106" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>781</v>
+      </c>
+      <c r="K106" s="196" t="s">
+        <v>789</v>
+      </c>
+      <c r="L106" t="s">
+        <v>793</v>
+      </c>
+      <c r="M106" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="107" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C107" s="1">
+        <f t="shared" si="14"/>
+        <v>2831</v>
+      </c>
+      <c r="D107" s="1">
+        <v>6</v>
+      </c>
+      <c r="E107" s="200">
+        <v>43.9</v>
+      </c>
+      <c r="F107" s="61" t="s">
+        <v>651</v>
+      </c>
+      <c r="G107" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> Sep 26</v>
+      </c>
+      <c r="H107" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> Dec 06</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>781</v>
+      </c>
+      <c r="K107" s="196" t="s">
+        <v>789</v>
+      </c>
+      <c r="L107" t="s">
+        <v>793</v>
+      </c>
+      <c r="M107" s="196" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="108" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C108" s="1">
+        <f t="shared" si="14"/>
+        <v>2831</v>
+      </c>
+      <c r="D108" s="1">
+        <v>7</v>
+      </c>
+      <c r="E108" s="200">
+        <v>47.2</v>
+      </c>
+      <c r="F108" s="61" t="s">
+        <v>794</v>
+      </c>
+      <c r="G108" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> Sep 26</v>
+      </c>
+      <c r="H108" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> Feb 15</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>781</v>
+      </c>
+      <c r="K108" s="196" t="s">
+        <v>789</v>
+      </c>
+      <c r="L108" t="s">
+        <v>795</v>
+      </c>
+      <c r="M108" s="196" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="109" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C109" s="1">
+        <f t="shared" si="14"/>
+        <v>2831</v>
+      </c>
+      <c r="D109" s="1">
+        <v>8</v>
+      </c>
+      <c r="E109" s="200">
+        <v>42.8</v>
+      </c>
+      <c r="F109" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="G109" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> Jun 20</v>
+      </c>
+      <c r="H109" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J109" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K109" s="196" t="s">
+        <v>796</v>
+      </c>
+      <c r="L109" t="s">
+        <v>793</v>
+      </c>
+      <c r="M109" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="110" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C110" s="1">
+        <f t="shared" si="14"/>
+        <v>2831</v>
+      </c>
+      <c r="D110" s="1">
+        <v>9</v>
+      </c>
+      <c r="E110" s="200">
+        <v>41.3</v>
+      </c>
+      <c r="F110" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="G110" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> Jun 20</v>
+      </c>
+      <c r="H110" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J110" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K110" s="196" t="s">
+        <v>796</v>
+      </c>
+      <c r="L110" t="s">
+        <v>793</v>
+      </c>
+      <c r="M110" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="111" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C111" s="1">
+        <f t="shared" si="14"/>
+        <v>2831</v>
+      </c>
+      <c r="D111" s="1">
+        <v>10</v>
+      </c>
+      <c r="E111" s="200">
+        <v>38.9</v>
+      </c>
+      <c r="F111" s="61" t="s">
+        <v>797</v>
+      </c>
+      <c r="G111" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> Jun 20</v>
+      </c>
+      <c r="H111" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J111" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K111" s="196" t="s">
+        <v>796</v>
+      </c>
+      <c r="L111" t="s">
+        <v>793</v>
+      </c>
+      <c r="M111" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="112" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C112" s="1">
+        <f t="shared" si="14"/>
+        <v>2831</v>
+      </c>
+      <c r="D112" s="1">
+        <v>11</v>
+      </c>
+      <c r="E112" s="200">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F112" s="61" t="s">
+        <v>661</v>
+      </c>
+      <c r="G112" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> Jul 04</v>
+      </c>
+      <c r="H112" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> Jan 10</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J112" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K112" s="196" t="s">
+        <v>610</v>
+      </c>
+      <c r="L112" t="s">
+        <v>783</v>
+      </c>
+      <c r="M112" s="196" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="113" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C113" s="1">
+        <f t="shared" si="14"/>
+        <v>2831</v>
+      </c>
+      <c r="D113" s="1">
+        <v>12</v>
+      </c>
+      <c r="E113" s="200">
+        <v>34</v>
+      </c>
+      <c r="F113" s="61" t="s">
+        <v>797</v>
+      </c>
+      <c r="G113" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> Jul 05</v>
+      </c>
+      <c r="H113" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> Jan 10</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J113" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K113" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="L113" t="s">
+        <v>783</v>
+      </c>
+      <c r="M113" s="196" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="114" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C114" s="1">
+        <f t="shared" si="14"/>
+        <v>2831</v>
+      </c>
+      <c r="D114" s="1">
+        <v>13</v>
+      </c>
+      <c r="E114" s="200">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F114" s="61" t="s">
+        <v>664</v>
+      </c>
+      <c r="G114" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> Jul 05</v>
+      </c>
+      <c r="H114" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> Dec 04</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J114" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K114" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="L114" t="s">
+        <v>793</v>
+      </c>
+      <c r="M114" s="196" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="115" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C115" s="1">
+        <f t="shared" si="14"/>
+        <v>2831</v>
+      </c>
+      <c r="D115" s="1">
+        <v>14</v>
+      </c>
+      <c r="E115" s="200">
+        <v>28</v>
+      </c>
+      <c r="F115" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="G115" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> Jul 05</v>
+      </c>
+      <c r="H115" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J115" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K115" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="L115" t="s">
+        <v>793</v>
+      </c>
+      <c r="M115" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="116" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C116" s="1">
+        <f t="shared" si="14"/>
+        <v>2831</v>
+      </c>
+      <c r="D116" s="1">
+        <v>15</v>
+      </c>
+      <c r="E116" s="200">
+        <v>43.9</v>
+      </c>
+      <c r="F116" s="61" t="s">
+        <v>799</v>
+      </c>
+      <c r="G116" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> Jun 20</v>
+      </c>
+      <c r="H116" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> Jan 02</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J116" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K116" s="196" t="s">
+        <v>796</v>
+      </c>
+      <c r="L116" t="s">
+        <v>783</v>
+      </c>
+      <c r="M116" s="196" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="117" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C117" s="1">
+        <f t="shared" si="14"/>
+        <v>2831</v>
+      </c>
+      <c r="D117" s="1">
+        <v>16</v>
+      </c>
+      <c r="E117" s="201">
+        <v>23.6</v>
+      </c>
+      <c r="F117" s="61" t="s">
+        <v>800</v>
+      </c>
+      <c r="G117" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> Jul 04</v>
+      </c>
+      <c r="H117" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> Feb 04</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J117" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K117" s="196" t="s">
+        <v>610</v>
+      </c>
+      <c r="L117" t="s">
+        <v>795</v>
+      </c>
+      <c r="M117" s="196" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="118" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C118" s="154">
+        <v>2832</v>
+      </c>
+      <c r="D118" s="156">
+        <v>1</v>
+      </c>
+      <c r="E118" s="199">
+        <v>33.6</v>
+      </c>
+      <c r="F118" s="129" t="s">
+        <v>780</v>
+      </c>
+      <c r="G118" s="83" t="str">
+        <f>" " &amp; J118 &amp; " " &amp; K118</f>
+        <v xml:space="preserve"> Sep 25</v>
+      </c>
+      <c r="H118" s="156" t="str">
+        <f>" " &amp; L118 &amp; " " &amp; M118</f>
+        <v xml:space="preserve"> Jan 09</v>
+      </c>
+      <c r="I118" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="J118" s="146" t="s">
+        <v>781</v>
+      </c>
+      <c r="K118" s="195" t="s">
+        <v>782</v>
+      </c>
+      <c r="L118" s="146" t="s">
+        <v>783</v>
+      </c>
+      <c r="M118" s="195" t="s">
+        <v>615</v>
+      </c>
+      <c r="N118" s="146" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="119" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C119" s="1">
+        <f>C118</f>
+        <v>2832</v>
+      </c>
+      <c r="D119" s="1">
+        <v>2</v>
+      </c>
+      <c r="E119" s="200">
+        <v>31.5</v>
+      </c>
+      <c r="F119" s="61" t="s">
+        <v>785</v>
+      </c>
+      <c r="G119" s="16" t="str">
+        <f t="shared" ref="G119:G133" si="15">" " &amp; J119 &amp; " " &amp; K119</f>
+        <v xml:space="preserve"> Oct 02</v>
+      </c>
+      <c r="H119" s="1" t="str">
+        <f t="shared" ref="H119:H133" si="16">" " &amp; L119 &amp; " " &amp; M119</f>
+        <v xml:space="preserve"> Jan 10</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>786</v>
+      </c>
+      <c r="K119" s="196" t="s">
+        <v>608</v>
+      </c>
+      <c r="L119" t="s">
+        <v>783</v>
+      </c>
+      <c r="M119" s="196" t="s">
+        <v>616</v>
+      </c>
+      <c r="N119" s="197" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="120" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C120" s="1">
+        <f t="shared" ref="C120:C133" si="17">C119</f>
+        <v>2832</v>
+      </c>
+      <c r="D120" s="1">
+        <v>3</v>
+      </c>
+      <c r="E120" s="200">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="F120" s="61" t="s">
+        <v>788</v>
+      </c>
+      <c r="G120" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> Sep 26</v>
+      </c>
+      <c r="H120" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> Nov 27</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J120" s="198" t="s">
+        <v>781</v>
+      </c>
+      <c r="K120" s="196" t="s">
+        <v>789</v>
+      </c>
+      <c r="L120" t="s">
+        <v>790</v>
+      </c>
+      <c r="M120" s="196" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="121" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C121" s="1">
+        <f t="shared" si="17"/>
+        <v>2832</v>
+      </c>
+      <c r="D121" s="1">
+        <v>4</v>
+      </c>
+      <c r="E121" s="200">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F121" s="61" t="s">
+        <v>667</v>
+      </c>
+      <c r="G121" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> Jun 27</v>
+      </c>
+      <c r="H121" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> Dec 02</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J121" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K121" s="196" t="s">
+        <v>791</v>
+      </c>
+      <c r="L121" t="s">
+        <v>793</v>
+      </c>
+      <c r="M121" s="196" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="122" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C122" s="1">
+        <f t="shared" si="17"/>
+        <v>2832</v>
+      </c>
+      <c r="D122" s="1">
+        <v>5</v>
+      </c>
+      <c r="E122" s="200">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F122" s="61" t="s">
+        <v>653</v>
+      </c>
+      <c r="G122" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> Sep 26</v>
+      </c>
+      <c r="H122" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J122" t="s">
+        <v>781</v>
+      </c>
+      <c r="K122" s="196" t="s">
+        <v>789</v>
+      </c>
+      <c r="L122" t="s">
+        <v>793</v>
+      </c>
+      <c r="M122" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="123" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C123" s="1">
+        <f t="shared" si="17"/>
+        <v>2832</v>
+      </c>
+      <c r="D123" s="1">
+        <v>6</v>
+      </c>
+      <c r="E123" s="200">
+        <v>43.9</v>
+      </c>
+      <c r="F123" s="61" t="s">
+        <v>651</v>
+      </c>
+      <c r="G123" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> Sep 26</v>
+      </c>
+      <c r="H123" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> Dec 06</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>781</v>
+      </c>
+      <c r="K123" s="196" t="s">
+        <v>789</v>
+      </c>
+      <c r="L123" t="s">
+        <v>793</v>
+      </c>
+      <c r="M123" s="196" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="124" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C124" s="1">
+        <f t="shared" si="17"/>
+        <v>2832</v>
+      </c>
+      <c r="D124" s="1">
+        <v>7</v>
+      </c>
+      <c r="E124" s="200">
+        <v>47.2</v>
+      </c>
+      <c r="F124" s="61" t="s">
+        <v>794</v>
+      </c>
+      <c r="G124" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> Sep 26</v>
+      </c>
+      <c r="H124" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> Feb 15</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>781</v>
+      </c>
+      <c r="K124" s="196" t="s">
+        <v>789</v>
+      </c>
+      <c r="L124" t="s">
+        <v>795</v>
+      </c>
+      <c r="M124" s="196" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="125" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C125" s="1">
+        <f t="shared" si="17"/>
+        <v>2832</v>
+      </c>
+      <c r="D125" s="1">
+        <v>8</v>
+      </c>
+      <c r="E125" s="200">
+        <v>42.8</v>
+      </c>
+      <c r="F125" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="G125" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> Jun 20</v>
+      </c>
+      <c r="H125" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J125" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K125" s="196" t="s">
+        <v>796</v>
+      </c>
+      <c r="L125" t="s">
+        <v>793</v>
+      </c>
+      <c r="M125" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="126" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C126" s="1">
+        <f t="shared" si="17"/>
+        <v>2832</v>
+      </c>
+      <c r="D126" s="1">
+        <v>9</v>
+      </c>
+      <c r="E126" s="200">
+        <v>41.3</v>
+      </c>
+      <c r="F126" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="G126" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> Jun 20</v>
+      </c>
+      <c r="H126" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J126" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K126" s="196" t="s">
+        <v>796</v>
+      </c>
+      <c r="L126" t="s">
+        <v>793</v>
+      </c>
+      <c r="M126" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="127" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C127" s="1">
+        <f t="shared" si="17"/>
+        <v>2832</v>
+      </c>
+      <c r="D127" s="1">
+        <v>10</v>
+      </c>
+      <c r="E127" s="200">
+        <v>38.9</v>
+      </c>
+      <c r="F127" s="61" t="s">
+        <v>797</v>
+      </c>
+      <c r="G127" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> Jun 20</v>
+      </c>
+      <c r="H127" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J127" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K127" s="196" t="s">
+        <v>796</v>
+      </c>
+      <c r="L127" t="s">
+        <v>793</v>
+      </c>
+      <c r="M127" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="128" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C128" s="1">
+        <f t="shared" si="17"/>
+        <v>2832</v>
+      </c>
+      <c r="D128" s="1">
+        <v>11</v>
+      </c>
+      <c r="E128" s="200">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F128" s="61" t="s">
+        <v>661</v>
+      </c>
+      <c r="G128" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> Jul 04</v>
+      </c>
+      <c r="H128" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> Jan 10</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J128" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K128" s="196" t="s">
+        <v>610</v>
+      </c>
+      <c r="L128" t="s">
+        <v>783</v>
+      </c>
+      <c r="M128" s="196" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="129" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C129" s="1">
+        <f t="shared" si="17"/>
+        <v>2832</v>
+      </c>
+      <c r="D129" s="1">
+        <v>12</v>
+      </c>
+      <c r="E129" s="200">
+        <v>34</v>
+      </c>
+      <c r="F129" s="61" t="s">
+        <v>797</v>
+      </c>
+      <c r="G129" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> Jul 05</v>
+      </c>
+      <c r="H129" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> Jan 10</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J129" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K129" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="L129" t="s">
+        <v>783</v>
+      </c>
+      <c r="M129" s="196" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="130" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C130" s="1">
+        <f t="shared" si="17"/>
+        <v>2832</v>
+      </c>
+      <c r="D130" s="1">
+        <v>13</v>
+      </c>
+      <c r="E130" s="200">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F130" s="61" t="s">
+        <v>664</v>
+      </c>
+      <c r="G130" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> Jul 05</v>
+      </c>
+      <c r="H130" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> Dec 04</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J130" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K130" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="L130" t="s">
+        <v>793</v>
+      </c>
+      <c r="M130" s="196" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="131" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C131" s="1">
+        <f t="shared" si="17"/>
+        <v>2832</v>
+      </c>
+      <c r="D131" s="1">
+        <v>14</v>
+      </c>
+      <c r="E131" s="200">
+        <v>28</v>
+      </c>
+      <c r="F131" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="G131" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> Jul 05</v>
+      </c>
+      <c r="H131" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> Dec 01</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J131" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K131" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="L131" t="s">
+        <v>793</v>
+      </c>
+      <c r="M131" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="132" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C132" s="1">
+        <f t="shared" si="17"/>
+        <v>2832</v>
+      </c>
+      <c r="D132" s="1">
+        <v>15</v>
+      </c>
+      <c r="E132" s="200">
+        <v>43.9</v>
+      </c>
+      <c r="F132" s="61" t="s">
+        <v>799</v>
+      </c>
+      <c r="G132" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> Jun 20</v>
+      </c>
+      <c r="H132" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> Jan 02</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J132" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K132" s="196" t="s">
+        <v>796</v>
+      </c>
+      <c r="L132" t="s">
+        <v>783</v>
+      </c>
+      <c r="M132" s="196" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="133" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C133" s="1">
+        <f t="shared" si="17"/>
+        <v>2832</v>
+      </c>
+      <c r="D133" s="1">
+        <v>16</v>
+      </c>
+      <c r="E133" s="201">
+        <v>23.6</v>
+      </c>
+      <c r="F133" s="61" t="s">
+        <v>800</v>
+      </c>
+      <c r="G133" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> Jul 04</v>
+      </c>
+      <c r="H133" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> Feb 04</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J133" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K133" s="196" t="s">
+        <v>610</v>
+      </c>
+      <c r="L133" t="s">
+        <v>795</v>
+      </c>
+      <c r="M133" s="196" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="134" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C134" s="154">
+        <v>2840</v>
+      </c>
+      <c r="D134" s="156">
+        <v>1</v>
+      </c>
+      <c r="E134" s="199">
+        <v>33.6</v>
+      </c>
+      <c r="F134" s="129" t="s">
+        <v>780</v>
+      </c>
+      <c r="G134" s="83" t="str">
+        <f>" " &amp; J134 &amp; " " &amp; K134</f>
+        <v xml:space="preserve"> Sep 09</v>
+      </c>
+      <c r="H134" s="156" t="str">
+        <f>" " &amp; L134 &amp; " " &amp; M134</f>
+        <v xml:space="preserve"> Feb 05</v>
+      </c>
+      <c r="I134" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="J134" s="146" t="s">
+        <v>781</v>
+      </c>
+      <c r="K134" s="195" t="s">
+        <v>615</v>
+      </c>
+      <c r="L134" s="146" t="s">
+        <v>795</v>
+      </c>
+      <c r="M134" s="195" t="s">
+        <v>611</v>
+      </c>
+      <c r="N134" s="146" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="135" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C135" s="1">
+        <f>C134</f>
+        <v>2840</v>
+      </c>
+      <c r="D135" s="1">
+        <v>2</v>
+      </c>
+      <c r="E135" s="200">
+        <v>31.5</v>
+      </c>
+      <c r="F135" s="61" t="s">
+        <v>785</v>
+      </c>
+      <c r="G135" s="16" t="str">
+        <f t="shared" ref="G135:G149" si="18">" " &amp; J135 &amp; " " &amp; K135</f>
+        <v xml:space="preserve"> Jul 22</v>
+      </c>
+      <c r="H135" s="1" t="str">
+        <f t="shared" ref="H135:H149" si="19">" " &amp; L135 &amp; " " &amp; M135</f>
+        <v xml:space="preserve"> Feb 01</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J135" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K135" s="196" t="s">
+        <v>1154</v>
+      </c>
+      <c r="L135" t="s">
+        <v>795</v>
+      </c>
+      <c r="M135" s="196" t="s">
+        <v>607</v>
+      </c>
+      <c r="N135" s="197" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="136" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C136" s="1">
+        <f t="shared" ref="C136:C149" si="20">C135</f>
+        <v>2840</v>
+      </c>
+      <c r="D136" s="1">
+        <v>3</v>
+      </c>
+      <c r="E136" s="200">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="F136" s="61" t="s">
+        <v>788</v>
+      </c>
+      <c r="G136" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> Jul 22</v>
+      </c>
+      <c r="H136" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> Feb 05</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J136" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K136" s="196" t="s">
+        <v>1154</v>
+      </c>
+      <c r="L136" t="s">
+        <v>795</v>
+      </c>
+      <c r="M136" s="196" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="137" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C137" s="1">
+        <f t="shared" si="20"/>
+        <v>2840</v>
+      </c>
+      <c r="D137" s="1">
+        <v>4</v>
+      </c>
+      <c r="E137" s="200">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F137" s="61" t="s">
+        <v>667</v>
+      </c>
+      <c r="G137" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> Jul 22</v>
+      </c>
+      <c r="H137" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> Jan 01</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J137" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K137" s="196" t="s">
+        <v>1154</v>
+      </c>
+      <c r="L137" t="s">
+        <v>783</v>
+      </c>
+      <c r="M137" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="138" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C138" s="1">
+        <f t="shared" si="20"/>
+        <v>2840</v>
+      </c>
+      <c r="D138" s="1">
+        <v>5</v>
+      </c>
+      <c r="E138" s="200">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F138" s="61" t="s">
+        <v>653</v>
+      </c>
+      <c r="G138" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> Oct 17</v>
+      </c>
+      <c r="H138" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> Dec 29</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J138" t="s">
+        <v>786</v>
+      </c>
+      <c r="K138" s="196" t="s">
+        <v>801</v>
+      </c>
+      <c r="L138" t="s">
+        <v>793</v>
+      </c>
+      <c r="M138" s="196" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="139" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C139" s="1">
+        <f t="shared" si="20"/>
+        <v>2840</v>
+      </c>
+      <c r="D139" s="1">
+        <v>6</v>
+      </c>
+      <c r="E139" s="200">
+        <v>43.9</v>
+      </c>
+      <c r="F139" s="61" t="s">
+        <v>651</v>
+      </c>
+      <c r="G139" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> Jun 27</v>
+      </c>
+      <c r="H139" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> Jan 02</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J139" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K139" s="196" t="s">
+        <v>791</v>
+      </c>
+      <c r="L139" t="s">
+        <v>783</v>
+      </c>
+      <c r="M139" s="196" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="140" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C140" s="1">
+        <f t="shared" si="20"/>
+        <v>2840</v>
+      </c>
+      <c r="D140" s="1">
+        <v>7</v>
+      </c>
+      <c r="E140" s="200">
+        <v>47.2</v>
+      </c>
+      <c r="F140" s="61" t="s">
+        <v>794</v>
+      </c>
+      <c r="G140" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> Jul 22</v>
+      </c>
+      <c r="H140" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> Jan 02</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J140" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K140" s="196" t="s">
+        <v>1154</v>
+      </c>
+      <c r="L140" t="s">
+        <v>783</v>
+      </c>
+      <c r="M140" s="196" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="141" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C141" s="1">
+        <f t="shared" si="20"/>
+        <v>2840</v>
+      </c>
+      <c r="D141" s="1">
+        <v>8</v>
+      </c>
+      <c r="E141" s="200">
+        <v>42.8</v>
+      </c>
+      <c r="F141" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="G141" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> Jul 22</v>
+      </c>
+      <c r="H141" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> Dec 29</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J141" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K141" s="196" t="s">
+        <v>1154</v>
+      </c>
+      <c r="L141" t="s">
+        <v>793</v>
+      </c>
+      <c r="M141" s="196" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="142" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C142" s="1">
+        <f t="shared" si="20"/>
+        <v>2840</v>
+      </c>
+      <c r="D142" s="1">
+        <v>9</v>
+      </c>
+      <c r="E142" s="200">
+        <v>41.3</v>
+      </c>
+      <c r="F142" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="G142" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> Jul 22</v>
+      </c>
+      <c r="H142" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> Dec 29</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J142" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K142" s="196" t="s">
+        <v>1154</v>
+      </c>
+      <c r="L142" t="s">
+        <v>793</v>
+      </c>
+      <c r="M142" s="196" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="143" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C143" s="1">
+        <f t="shared" si="20"/>
+        <v>2840</v>
+      </c>
+      <c r="D143" s="1">
+        <v>10</v>
+      </c>
+      <c r="E143" s="200">
+        <v>38.9</v>
+      </c>
+      <c r="F143" s="61" t="s">
+        <v>797</v>
+      </c>
+      <c r="G143" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> Jul 22</v>
+      </c>
+      <c r="H143" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> Jan 04</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J143" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K143" s="196" t="s">
+        <v>1154</v>
+      </c>
+      <c r="L143" t="s">
+        <v>783</v>
+      </c>
+      <c r="M143" s="196" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="144" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C144" s="1">
+        <f t="shared" si="20"/>
+        <v>2840</v>
+      </c>
+      <c r="D144" s="1">
+        <v>11</v>
+      </c>
+      <c r="E144" s="200">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F144" s="61" t="s">
+        <v>661</v>
+      </c>
+      <c r="G144" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> Jun 25</v>
+      </c>
+      <c r="H144" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> Feb 05</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J144" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K144" s="196" t="s">
+        <v>782</v>
+      </c>
+      <c r="L144" t="s">
+        <v>795</v>
+      </c>
+      <c r="M144" s="196" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="145" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C145" s="1">
+        <f t="shared" si="20"/>
+        <v>2840</v>
+      </c>
+      <c r="D145" s="1">
+        <v>12</v>
+      </c>
+      <c r="E145" s="200">
+        <v>34</v>
+      </c>
+      <c r="F145" s="61" t="s">
+        <v>797</v>
+      </c>
+      <c r="G145" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> Jul 23</v>
+      </c>
+      <c r="H145" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> Jan 02</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J145" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K145" s="196" t="s">
+        <v>1155</v>
+      </c>
+      <c r="L145" t="s">
+        <v>783</v>
+      </c>
+      <c r="M145" s="196" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="146" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C146" s="1">
+        <f t="shared" si="20"/>
+        <v>2840</v>
+      </c>
+      <c r="D146" s="1">
+        <v>13</v>
+      </c>
+      <c r="E146" s="200">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F146" s="61" t="s">
+        <v>664</v>
+      </c>
+      <c r="G146" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> Jul 23</v>
+      </c>
+      <c r="H146" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> Jan 02</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J146" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K146" s="196" t="s">
+        <v>1155</v>
+      </c>
+      <c r="L146" t="s">
+        <v>783</v>
+      </c>
+      <c r="M146" s="196" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="147" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C147" s="1">
+        <f t="shared" si="20"/>
+        <v>2840</v>
+      </c>
+      <c r="D147" s="1">
+        <v>14</v>
+      </c>
+      <c r="E147" s="200">
+        <v>28</v>
+      </c>
+      <c r="F147" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="G147" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> Jul 15</v>
+      </c>
+      <c r="H147" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> Jan 02</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J147" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K147" s="196" t="s">
+        <v>619</v>
+      </c>
+      <c r="L147" t="s">
+        <v>783</v>
+      </c>
+      <c r="M147" s="196" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="148" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C148" s="1">
+        <f t="shared" si="20"/>
+        <v>2840</v>
+      </c>
+      <c r="D148" s="1">
+        <v>15</v>
+      </c>
+      <c r="E148" s="200">
+        <v>43.9</v>
+      </c>
+      <c r="F148" s="61" t="s">
+        <v>799</v>
+      </c>
+      <c r="G148" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> Jul 22</v>
+      </c>
+      <c r="H148" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> Jan 03</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J148" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K148" s="196" t="s">
+        <v>1154</v>
+      </c>
+      <c r="L148" t="s">
+        <v>783</v>
+      </c>
+      <c r="M148" s="196" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="66" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C66" s="156" t="s">
+    <row r="149" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C149" s="1">
+        <f t="shared" si="20"/>
+        <v>2840</v>
+      </c>
+      <c r="D149" s="1">
+        <v>16</v>
+      </c>
+      <c r="E149" s="201">
+        <v>23.6</v>
+      </c>
+      <c r="F149" s="61" t="s">
+        <v>800</v>
+      </c>
+      <c r="G149" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> Jun 25</v>
+      </c>
+      <c r="H149" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> Jan 01</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J149" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K149" s="196" t="s">
+        <v>782</v>
+      </c>
+      <c r="L149" t="s">
+        <v>783</v>
+      </c>
+      <c r="M149" s="196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="150" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C150" s="154">
+        <v>2220</v>
+      </c>
+      <c r="D150" s="156">
+        <v>1</v>
+      </c>
+      <c r="E150" s="8">
+        <v>33.6</v>
+      </c>
+      <c r="F150" s="156" t="str">
+        <f>" " &amp; J150 &amp; " " &amp; K150</f>
+        <v xml:space="preserve"> Oct 14</v>
+      </c>
+      <c r="G150" s="83" t="s">
+        <v>649</v>
+      </c>
+      <c r="H150" s="156" t="s">
+        <v>650</v>
+      </c>
+      <c r="I150" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="J150" s="202" t="s">
+        <v>786</v>
+      </c>
+      <c r="K150" s="195" t="s">
+        <v>618</v>
+      </c>
+      <c r="L150" s="146" t="s">
+        <v>647</v>
+      </c>
+      <c r="M150" s="146"/>
+      <c r="N150" s="146"/>
+    </row>
+    <row r="151" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C151" s="1">
+        <v>2220</v>
+      </c>
+      <c r="D151" s="1">
+        <v>2</v>
+      </c>
+      <c r="E151" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="F151" s="1" t="str">
+        <f t="shared" ref="F151:F165" si="21">" " &amp; J151 &amp; " " &amp; K151</f>
+        <v xml:space="preserve"> Jun 07</v>
+      </c>
+      <c r="G151" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J151" s="198" t="s">
+        <v>792</v>
+      </c>
+      <c r="K151" s="196" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="152" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C152" s="1">
+        <v>2220</v>
+      </c>
+      <c r="D152" s="1">
+        <v>3</v>
+      </c>
+      <c r="E152" s="2">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="F152" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> Sep 17</v>
+      </c>
+      <c r="G152" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J152" s="198" t="s">
+        <v>781</v>
+      </c>
+      <c r="K152" s="196" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="153" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C153" s="1">
+        <v>2220</v>
+      </c>
+      <c r="D153" s="1">
+        <v>4</v>
+      </c>
+      <c r="E153" s="2">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F153" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> Aug 15</v>
+      </c>
+      <c r="G153" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J153" s="198" t="s">
+        <v>802</v>
+      </c>
+      <c r="K153" s="196" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="154" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C154" s="1">
+        <v>2220</v>
+      </c>
+      <c r="D154" s="1">
+        <v>5</v>
+      </c>
+      <c r="E154" s="2">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F154" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> Aug 29</v>
+      </c>
+      <c r="G154" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J154" s="198" t="s">
+        <v>802</v>
+      </c>
+      <c r="K154" s="196" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="155" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C155" s="1">
+        <v>2220</v>
+      </c>
+      <c r="D155" s="1">
+        <v>6</v>
+      </c>
+      <c r="E155" s="2">
+        <v>43.9</v>
+      </c>
+      <c r="F155" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> Oct 02</v>
+      </c>
+      <c r="G155" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J155" s="198" t="s">
+        <v>786</v>
+      </c>
+      <c r="K155" s="196" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="156" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C156" s="1">
+        <v>2220</v>
+      </c>
+      <c r="D156" s="1">
+        <v>7</v>
+      </c>
+      <c r="E156" s="2">
+        <v>47.2</v>
+      </c>
+      <c r="F156" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> Oct 26</v>
+      </c>
+      <c r="G156" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J156" s="198" t="s">
+        <v>786</v>
+      </c>
+      <c r="K156" s="196" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="157" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C157" s="1">
+        <v>2220</v>
+      </c>
+      <c r="D157" s="1">
+        <v>8</v>
+      </c>
+      <c r="E157" s="2">
+        <v>42.8</v>
+      </c>
+      <c r="F157" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> Aug 07</v>
+      </c>
+      <c r="G157" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J157" s="198" t="s">
+        <v>802</v>
+      </c>
+      <c r="K157" s="196" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="158" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C158" s="1">
+        <v>2220</v>
+      </c>
+      <c r="D158" s="1">
+        <v>9</v>
+      </c>
+      <c r="E158" s="2">
+        <v>41.3</v>
+      </c>
+      <c r="F158" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> Aug 14</v>
+      </c>
+      <c r="G158" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J158" s="198" t="s">
+        <v>802</v>
+      </c>
+      <c r="K158" s="196" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="159" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C159" s="1">
+        <v>2220</v>
+      </c>
+      <c r="D159" s="1">
+        <v>10</v>
+      </c>
+      <c r="E159" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="F159" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> Jul 02</v>
+      </c>
+      <c r="G159" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J159" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K159" s="196" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="160" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C160" s="1">
+        <v>2220</v>
+      </c>
+      <c r="D160" s="1">
+        <v>11</v>
+      </c>
+      <c r="E160" s="2">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F160" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> Jul 04</v>
+      </c>
+      <c r="G160" s="16" t="s">
+        <v>662</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J160" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K160" s="196" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="161" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C161" s="1">
+        <v>2220</v>
+      </c>
+      <c r="D161" s="1">
+        <v>12</v>
+      </c>
+      <c r="E161" s="2">
+        <v>34</v>
+      </c>
+      <c r="F161" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> Jul 02</v>
+      </c>
+      <c r="G161" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J161" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K161" s="196" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="162" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C162" s="1">
+        <v>2220</v>
+      </c>
+      <c r="D162" s="1">
+        <v>13</v>
+      </c>
+      <c r="E162" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F162" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> Aug 12</v>
+      </c>
+      <c r="G162" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J162" s="198" t="s">
+        <v>802</v>
+      </c>
+      <c r="K162" s="196" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="163" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C163" s="1">
+        <v>2220</v>
+      </c>
+      <c r="D163" s="1">
+        <v>14</v>
+      </c>
+      <c r="E163" s="2">
+        <v>28</v>
+      </c>
+      <c r="F163" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> Aug 14</v>
+      </c>
+      <c r="G163" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J163" s="198" t="s">
+        <v>802</v>
+      </c>
+      <c r="K163" s="196" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="164" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C164" s="1">
+        <v>2220</v>
+      </c>
+      <c r="D164" s="1">
+        <v>15</v>
+      </c>
+      <c r="E164" s="2">
+        <v>43.9</v>
+      </c>
+      <c r="F164" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> Jul 08</v>
+      </c>
+      <c r="G164" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J164" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K164" s="196" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="165" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C165" s="1">
+        <v>2220</v>
+      </c>
+      <c r="D165" s="1">
+        <v>16</v>
+      </c>
+      <c r="E165" s="20">
+        <v>23.6</v>
+      </c>
+      <c r="F165" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> Jul 03</v>
+      </c>
+      <c r="G165" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J165" s="198" t="s">
+        <v>798</v>
+      </c>
+      <c r="K165" s="196" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="166" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C166" s="154" t="s">
         <v>353</v>
       </c>
-      <c r="D66" s="156">
-        <v>1</v>
-      </c>
-      <c r="E66" s="164">
+      <c r="D166" s="156">
+        <v>1</v>
+      </c>
+      <c r="E166" s="164">
         <v>33</v>
       </c>
-      <c r="F66" s="165" t="s">
+      <c r="F166" s="165" t="s">
         <v>394</v>
       </c>
-      <c r="G66" s="166" t="s">
+      <c r="G166" s="166" t="s">
         <v>407</v>
       </c>
-      <c r="H66" s="165" t="s">
+      <c r="H166" s="165" t="s">
         <v>408</v>
       </c>
-      <c r="I66" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="J66" s="24" t="s">
+      <c r="I166" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="J166" s="24" t="s">
         <v>648</v>
       </c>
-      <c r="K66" s="6"/>
-      <c r="L66" s="1"/>
-    </row>
-    <row r="67" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C67" s="61" t="str">
-        <f t="shared" ref="C67:C81" si="4">C66</f>
+      <c r="K166" s="6"/>
+      <c r="L166" s="1"/>
+    </row>
+    <row r="167" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C167" s="61" t="str">
+        <f t="shared" ref="C167:C181" si="22">C166</f>
         <v>*</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D167" s="1">
         <v>2</v>
       </c>
-      <c r="E67" s="82">
+      <c r="E167" s="82">
         <v>29</v>
       </c>
-      <c r="F67" s="23" t="s">
+      <c r="F167" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="G67" s="84" t="s">
+      <c r="G167" s="84" t="s">
         <v>409</v>
       </c>
-      <c r="H67" s="23" t="s">
+      <c r="H167" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="I67" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="J67" s="24"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="1"/>
-    </row>
-    <row r="68" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C68" s="61" t="str">
-        <f t="shared" si="4"/>
+      <c r="I167" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="J167" s="24"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="1"/>
+    </row>
+    <row r="168" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C168" s="61" t="str">
+        <f t="shared" si="22"/>
         <v>*</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D168" s="1">
         <v>3</v>
       </c>
-      <c r="E68" s="82">
+      <c r="E168" s="82">
         <v>37</v>
       </c>
-      <c r="F68" s="23" t="s">
+      <c r="F168" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="G68" s="84" t="s">
+      <c r="G168" s="84" t="s">
         <v>411</v>
       </c>
-      <c r="H68" s="23" t="s">
+      <c r="H168" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="I68" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="J68" s="24"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="1"/>
-    </row>
-    <row r="69" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C69" s="61" t="str">
-        <f t="shared" si="4"/>
+      <c r="I168" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="J168" s="24"/>
+      <c r="K168" s="6"/>
+      <c r="L168" s="1"/>
+    </row>
+    <row r="169" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C169" s="61" t="str">
+        <f t="shared" si="22"/>
         <v>*</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D169" s="1">
         <v>4</v>
       </c>
-      <c r="E69" s="82">
+      <c r="E169" s="82">
         <v>36</v>
       </c>
-      <c r="F69" s="23" t="s">
+      <c r="F169" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="G69" s="84" t="s">
+      <c r="G169" s="84" t="s">
         <v>401</v>
       </c>
-      <c r="H69" s="23" t="s">
+      <c r="H169" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="I69" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="J69" s="24"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="1"/>
-    </row>
-    <row r="70" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C70" s="61" t="str">
-        <f t="shared" si="4"/>
+      <c r="I169" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="J169" s="24"/>
+      <c r="K169" s="6"/>
+      <c r="L169" s="1"/>
+    </row>
+    <row r="170" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C170" s="61" t="str">
+        <f t="shared" si="22"/>
         <v>*</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D170" s="1">
         <v>5</v>
       </c>
-      <c r="E70" s="82">
+      <c r="E170" s="82">
         <v>33</v>
       </c>
-      <c r="F70" s="23" t="s">
+      <c r="F170" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="G70" s="84" t="s">
+      <c r="G170" s="84" t="s">
         <v>414</v>
       </c>
-      <c r="H70" s="23" t="s">
+      <c r="H170" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="I70" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="J70" s="24"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="1"/>
-    </row>
-    <row r="71" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C71" s="61" t="str">
-        <f t="shared" si="4"/>
+      <c r="I170" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="J170" s="24"/>
+      <c r="K170" s="6"/>
+      <c r="L170" s="1"/>
+    </row>
+    <row r="171" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C171" s="61" t="str">
+        <f t="shared" si="22"/>
         <v>*</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D171" s="1">
         <v>6</v>
       </c>
-      <c r="E71" s="82">
+      <c r="E171" s="82">
         <v>39</v>
       </c>
-      <c r="F71" s="23" t="s">
+      <c r="F171" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="G71" s="84" t="s">
+      <c r="G171" s="84" t="s">
         <v>416</v>
       </c>
-      <c r="H71" s="23" t="s">
+      <c r="H171" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="I71" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="J71" s="24"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="1"/>
-    </row>
-    <row r="72" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C72" s="61" t="str">
-        <f t="shared" si="4"/>
+      <c r="I171" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="J171" s="24"/>
+      <c r="K171" s="6"/>
+      <c r="L171" s="1"/>
+    </row>
+    <row r="172" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C172" s="61" t="str">
+        <f t="shared" si="22"/>
         <v>*</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D172" s="1">
         <v>7</v>
       </c>
-      <c r="E72" s="82">
+      <c r="E172" s="82">
         <v>44</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F172" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="G72" s="84" t="s">
+      <c r="G172" s="84" t="s">
         <v>416</v>
       </c>
-      <c r="H72" s="23" t="s">
+      <c r="H172" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="I72" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="J72" s="24"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="1"/>
-    </row>
-    <row r="73" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C73" s="61" t="str">
-        <f t="shared" si="4"/>
+      <c r="I172" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="J172" s="24"/>
+      <c r="K172" s="6"/>
+      <c r="L172" s="1"/>
+    </row>
+    <row r="173" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C173" s="61" t="str">
+        <f t="shared" si="22"/>
         <v>*</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D173" s="1">
         <v>8</v>
       </c>
-      <c r="E73" s="82">
+      <c r="E173" s="82">
         <v>37</v>
       </c>
-      <c r="F73" s="23" t="s">
+      <c r="F173" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="G73" s="84" t="s">
+      <c r="G173" s="84" t="s">
         <v>416</v>
       </c>
-      <c r="H73" s="23" t="s">
+      <c r="H173" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="I73" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="J73" s="24"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="1"/>
-    </row>
-    <row r="74" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C74" s="61" t="str">
-        <f t="shared" si="4"/>
+      <c r="I173" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="J173" s="24"/>
+      <c r="K173" s="6"/>
+      <c r="L173" s="1"/>
+    </row>
+    <row r="174" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C174" s="61" t="str">
+        <f t="shared" si="22"/>
         <v>*</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D174" s="1">
         <v>9</v>
       </c>
-      <c r="E74" s="82">
+      <c r="E174" s="82">
         <v>36</v>
       </c>
-      <c r="F74" s="23" t="s">
+      <c r="F174" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="G74" s="84" t="s">
+      <c r="G174" s="84" t="s">
         <v>416</v>
       </c>
-      <c r="H74" s="23" t="s">
+      <c r="H174" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="I74" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-    </row>
-    <row r="75" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C75" s="61" t="str">
-        <f t="shared" si="4"/>
+      <c r="I174" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+    </row>
+    <row r="175" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C175" s="61" t="str">
+        <f t="shared" si="22"/>
         <v>*</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D175" s="1">
         <v>10</v>
       </c>
-      <c r="E75" s="82">
+      <c r="E175" s="82">
         <v>35</v>
       </c>
-      <c r="F75" s="23" t="s">
+      <c r="F175" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="G75" s="84" t="s">
+      <c r="G175" s="84" t="s">
         <v>416</v>
       </c>
-      <c r="H75" s="23" t="s">
+      <c r="H175" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="I75" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-    </row>
-    <row r="76" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C76" s="61" t="str">
-        <f t="shared" si="4"/>
+      <c r="I175" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+    </row>
+    <row r="176" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C176" s="61" t="str">
+        <f t="shared" si="22"/>
         <v>*</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D176" s="1">
         <v>11</v>
       </c>
-      <c r="E76" s="82">
+      <c r="E176" s="82">
         <v>21</v>
       </c>
-      <c r="F76" s="23" t="s">
+      <c r="F176" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G76" s="84" t="s">
+      <c r="G176" s="84" t="s">
         <v>419</v>
       </c>
-      <c r="H76" s="23" t="s">
+      <c r="H176" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="I76" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-    </row>
-    <row r="77" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C77" s="61" t="str">
-        <f t="shared" si="4"/>
+      <c r="I176" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+    </row>
+    <row r="177" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C177" s="61" t="str">
+        <f t="shared" si="22"/>
         <v>*</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D177" s="1">
         <v>12</v>
       </c>
-      <c r="E77" s="82">
+      <c r="E177" s="82">
         <v>37</v>
       </c>
-      <c r="F77" s="23" t="s">
+      <c r="F177" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="G77" s="84" t="s">
+      <c r="G177" s="84" t="s">
         <v>419</v>
       </c>
-      <c r="H77" s="23" t="s">
+      <c r="H177" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="I77" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-    </row>
-    <row r="78" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C78" s="61" t="str">
-        <f t="shared" si="4"/>
+      <c r="I177" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+    </row>
+    <row r="178" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C178" s="61" t="str">
+        <f t="shared" si="22"/>
         <v>*</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D178" s="1">
         <v>13</v>
       </c>
-      <c r="E78" s="82">
+      <c r="E178" s="82">
         <v>30</v>
       </c>
-      <c r="F78" s="23" t="s">
+      <c r="F178" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="G78" s="84" t="s">
+      <c r="G178" s="84" t="s">
         <v>419</v>
       </c>
-      <c r="H78" s="23" t="s">
+      <c r="H178" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="I78" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-    </row>
-    <row r="79" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C79" s="61" t="str">
-        <f t="shared" si="4"/>
+      <c r="I178" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+    </row>
+    <row r="179" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C179" s="61" t="str">
+        <f t="shared" si="22"/>
         <v>*</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D179" s="1">
         <v>14</v>
       </c>
-      <c r="E79" s="82">
+      <c r="E179" s="82">
         <v>24</v>
       </c>
-      <c r="F79" s="23" t="s">
+      <c r="F179" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="G79" s="84" t="s">
+      <c r="G179" s="84" t="s">
         <v>411</v>
       </c>
-      <c r="H79" s="23" t="s">
+      <c r="H179" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="I79" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-    </row>
-    <row r="80" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C80" s="61" t="str">
-        <f t="shared" si="4"/>
+      <c r="I179" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+    </row>
+    <row r="180" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C180" s="61" t="str">
+        <f t="shared" si="22"/>
         <v>*</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D180" s="1">
         <v>15</v>
       </c>
-      <c r="E80" s="82">
+      <c r="E180" s="82">
         <v>34</v>
       </c>
-      <c r="F80" s="23" t="s">
+      <c r="F180" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="G80" s="84" t="s">
+      <c r="G180" s="84" t="s">
         <v>421</v>
       </c>
-      <c r="H80" s="23" t="s">
+      <c r="H180" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="I80" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-    </row>
-    <row r="81" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C81" s="61" t="str">
-        <f t="shared" si="4"/>
+      <c r="I180" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+    </row>
+    <row r="181" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C181" s="61" t="str">
+        <f t="shared" si="22"/>
         <v>*</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D181" s="1">
         <v>16</v>
       </c>
-      <c r="E81" s="82">
+      <c r="E181" s="82">
         <v>24</v>
       </c>
-      <c r="F81" s="23" t="s">
+      <c r="F181" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="G81" s="84" t="s">
+      <c r="G181" s="84" t="s">
         <v>419</v>
       </c>
-      <c r="H81" s="23" t="s">
+      <c r="H181" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="I81" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="J81" s="24"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="1"/>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+      <c r="I181" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="J181" s="24"/>
+      <c r="K181" s="6"/>
+      <c r="L181" s="1"/>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
         <v>50</v>
       </c>
     </row>
@@ -69082,7 +72855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77ECA39A-EC2E-455F-969E-23262490FCBB}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
